--- a/JourneyofLords/Assets/Scripts/GameData/LevelData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/LevelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9B0AAC-8557-428E-8E81-D2B6DDEE3765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8791B073-BBF2-4D21-98B5-BD1A11EC248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroData" sheetId="1" r:id="rId1"/>
@@ -367,7 +367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -390,7 +392,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -406,7 +408,7 @@
       </c>
       <c r="B3">
         <f>B2+VLOOKUP(INT(A3/10), $F$2:$G$102, 2, FALSE)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -422,7 +424,7 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B67" si="1">B3+VLOOKUP(INT(A4/10), $F$2:$G$102, 2, FALSE)</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -438,7 +440,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -454,7 +456,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -470,7 +472,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -486,7 +488,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -502,7 +504,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -518,7 +520,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -534,7 +536,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -550,7 +552,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -566,7 +568,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F13">
         <v>11</v>
@@ -582,7 +584,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F14">
         <v>12</v>
@@ -598,7 +600,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F15">
         <v>13</v>
@@ -614,7 +616,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F16">
         <v>14</v>
@@ -630,7 +632,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F17">
         <v>15</v>
@@ -646,7 +648,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F18">
         <v>16</v>
@@ -662,7 +664,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F19">
         <v>17</v>
@@ -678,7 +680,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F20">
         <v>18</v>
@@ -694,7 +696,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F21">
         <v>19</v>
@@ -710,7 +712,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F22">
         <v>20</v>
@@ -726,7 +728,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F23">
         <v>21</v>
@@ -742,7 +744,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F24">
         <v>22</v>
@@ -758,7 +760,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F25">
         <v>23</v>
@@ -774,7 +776,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F26">
         <v>24</v>
@@ -790,7 +792,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="F27">
         <v>25</v>
@@ -806,7 +808,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F28">
         <v>26</v>
@@ -822,7 +824,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="F29">
         <v>27</v>
@@ -838,7 +840,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="F30">
         <v>28</v>
@@ -854,7 +856,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="F31">
         <v>29</v>
@@ -870,7 +872,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="F32">
         <v>30</v>
@@ -886,7 +888,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="F33">
         <v>31</v>
@@ -902,7 +904,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="F34">
         <v>32</v>
@@ -918,7 +920,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="F35">
         <v>33</v>
@@ -934,7 +936,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="F36">
         <v>34</v>
@@ -950,7 +952,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="F37">
         <v>35</v>
@@ -966,7 +968,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -982,7 +984,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="F39">
         <v>37</v>
@@ -998,7 +1000,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="F40">
         <v>38</v>
@@ -1014,7 +1016,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="F41">
         <v>39</v>
@@ -1030,7 +1032,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="F42">
         <v>40</v>
@@ -1046,7 +1048,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="F43">
         <v>41</v>
@@ -1062,7 +1064,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="F44">
         <v>42</v>
@@ -1078,7 +1080,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="F45">
         <v>43</v>
@@ -1094,7 +1096,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="F46">
         <v>44</v>
@@ -1110,7 +1112,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="F47">
         <v>45</v>
@@ -1126,7 +1128,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="F48">
         <v>46</v>
@@ -1142,7 +1144,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="1"/>
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="F49">
         <v>47</v>
@@ -1158,7 +1160,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="F50">
         <v>48</v>
@@ -1174,7 +1176,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="F51">
         <v>49</v>
@@ -1190,7 +1192,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="1"/>
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="F52">
         <v>50</v>
@@ -1206,7 +1208,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="F53">
         <v>51</v>
@@ -1222,7 +1224,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="F54">
         <v>52</v>
@@ -1238,7 +1240,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="F55">
         <v>53</v>
@@ -1254,7 +1256,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="1"/>
-        <v>18400</v>
+        <v>18500</v>
       </c>
       <c r="F56">
         <v>54</v>
@@ -1270,7 +1272,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="F57">
         <v>55</v>
@@ -1286,7 +1288,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="F58">
         <v>56</v>
@@ -1302,7 +1304,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
-        <v>20200</v>
+        <v>20300</v>
       </c>
       <c r="F59">
         <v>57</v>
@@ -1318,7 +1320,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="1"/>
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="F60">
         <v>58</v>
@@ -1334,7 +1336,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="1"/>
-        <v>21500</v>
+        <v>21600</v>
       </c>
       <c r="F61">
         <v>59</v>
@@ -1350,7 +1352,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="1"/>
-        <v>22200</v>
+        <v>22300</v>
       </c>
       <c r="F62">
         <v>60</v>
@@ -1366,7 +1368,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="1"/>
-        <v>22900</v>
+        <v>23000</v>
       </c>
       <c r="F63">
         <v>61</v>
@@ -1382,7 +1384,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="1"/>
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="F64">
         <v>62</v>
@@ -1398,7 +1400,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="1"/>
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="F65">
         <v>63</v>
@@ -1414,7 +1416,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="1"/>
-        <v>25000</v>
+        <v>25100</v>
       </c>
       <c r="F66">
         <v>64</v>
@@ -1430,7 +1432,7 @@
       </c>
       <c r="B67">
         <f t="shared" si="1"/>
-        <v>25700</v>
+        <v>25800</v>
       </c>
       <c r="F67">
         <v>65</v>
@@ -1446,7 +1448,7 @@
       </c>
       <c r="B68">
         <f t="shared" ref="B68:B131" si="3">B67+VLOOKUP(INT(A68/10), $F$2:$G$102, 2, FALSE)</f>
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="F68">
         <v>66</v>
@@ -1462,7 +1464,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="3"/>
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="F69">
         <v>67</v>
@@ -1478,7 +1480,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="3"/>
-        <v>27800</v>
+        <v>27900</v>
       </c>
       <c r="F70">
         <v>68</v>
@@ -1494,7 +1496,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="3"/>
-        <v>28600</v>
+        <v>28700</v>
       </c>
       <c r="F71">
         <v>69</v>
@@ -1510,7 +1512,7 @@
       </c>
       <c r="B72">
         <f t="shared" si="3"/>
-        <v>29400</v>
+        <v>29500</v>
       </c>
       <c r="F72">
         <v>70</v>
@@ -1526,7 +1528,7 @@
       </c>
       <c r="B73">
         <f t="shared" si="3"/>
-        <v>30200</v>
+        <v>30300</v>
       </c>
       <c r="F73">
         <v>71</v>
@@ -1542,7 +1544,7 @@
       </c>
       <c r="B74">
         <f t="shared" si="3"/>
-        <v>31000</v>
+        <v>31100</v>
       </c>
       <c r="F74">
         <v>72</v>
@@ -1558,7 +1560,7 @@
       </c>
       <c r="B75">
         <f t="shared" si="3"/>
-        <v>31800</v>
+        <v>31900</v>
       </c>
       <c r="F75">
         <v>73</v>
@@ -1574,7 +1576,7 @@
       </c>
       <c r="B76">
         <f t="shared" si="3"/>
-        <v>32600</v>
+        <v>32700</v>
       </c>
       <c r="F76">
         <v>74</v>
@@ -1590,7 +1592,7 @@
       </c>
       <c r="B77">
         <f t="shared" si="3"/>
-        <v>33400</v>
+        <v>33500</v>
       </c>
       <c r="F77">
         <v>75</v>
@@ -1606,7 +1608,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="3"/>
-        <v>34200</v>
+        <v>34300</v>
       </c>
       <c r="F78">
         <v>76</v>
@@ -1622,7 +1624,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="3"/>
-        <v>35000</v>
+        <v>35100</v>
       </c>
       <c r="F79">
         <v>77</v>
@@ -1638,7 +1640,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="3"/>
-        <v>35800</v>
+        <v>35900</v>
       </c>
       <c r="F80">
         <v>78</v>
@@ -1654,7 +1656,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="3"/>
-        <v>36700</v>
+        <v>36800</v>
       </c>
       <c r="F81">
         <v>79</v>
@@ -1670,7 +1672,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="3"/>
-        <v>37600</v>
+        <v>37700</v>
       </c>
       <c r="F82">
         <v>80</v>
@@ -1686,7 +1688,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="3"/>
-        <v>38500</v>
+        <v>38600</v>
       </c>
       <c r="F83">
         <v>81</v>
@@ -1702,7 +1704,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="3"/>
-        <v>39400</v>
+        <v>39500</v>
       </c>
       <c r="F84">
         <v>82</v>
@@ -1718,7 +1720,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="3"/>
-        <v>40300</v>
+        <v>40400</v>
       </c>
       <c r="F85">
         <v>83</v>
@@ -1734,7 +1736,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="3"/>
-        <v>41200</v>
+        <v>41300</v>
       </c>
       <c r="F86">
         <v>84</v>
@@ -1750,7 +1752,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="3"/>
-        <v>42100</v>
+        <v>42200</v>
       </c>
       <c r="F87">
         <v>85</v>
@@ -1766,7 +1768,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="3"/>
-        <v>43000</v>
+        <v>43100</v>
       </c>
       <c r="F88">
         <v>86</v>
@@ -1782,7 +1784,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="3"/>
-        <v>43900</v>
+        <v>44000</v>
       </c>
       <c r="F89">
         <v>87</v>
@@ -1798,7 +1800,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="3"/>
-        <v>44800</v>
+        <v>44900</v>
       </c>
       <c r="F90">
         <v>88</v>
@@ -1814,7 +1816,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="3"/>
-        <v>45800</v>
+        <v>45900</v>
       </c>
       <c r="F91">
         <v>89</v>
@@ -1830,7 +1832,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="3"/>
-        <v>46800</v>
+        <v>46900</v>
       </c>
       <c r="F92">
         <v>90</v>
@@ -1846,7 +1848,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="3"/>
-        <v>47800</v>
+        <v>47900</v>
       </c>
       <c r="F93">
         <v>91</v>
@@ -1862,7 +1864,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="3"/>
-        <v>48800</v>
+        <v>48900</v>
       </c>
       <c r="F94">
         <v>92</v>
@@ -1878,7 +1880,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="3"/>
-        <v>49800</v>
+        <v>49900</v>
       </c>
       <c r="F95">
         <v>93</v>
@@ -1894,7 +1896,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="3"/>
-        <v>50800</v>
+        <v>50900</v>
       </c>
       <c r="F96">
         <v>94</v>
@@ -1910,7 +1912,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="3"/>
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="F97">
         <v>95</v>
@@ -1926,7 +1928,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="3"/>
-        <v>52800</v>
+        <v>52900</v>
       </c>
       <c r="F98">
         <v>96</v>
@@ -1942,7 +1944,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="3"/>
-        <v>53800</v>
+        <v>53900</v>
       </c>
       <c r="F99">
         <v>97</v>
@@ -1958,7 +1960,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="3"/>
-        <v>54800</v>
+        <v>54900</v>
       </c>
       <c r="F100">
         <v>98</v>
@@ -1974,7 +1976,7 @@
       </c>
       <c r="B101">
         <f t="shared" si="3"/>
-        <v>55900</v>
+        <v>56000</v>
       </c>
       <c r="F101">
         <v>99</v>
@@ -1990,7 +1992,7 @@
       </c>
       <c r="B102">
         <f t="shared" si="3"/>
-        <v>57000</v>
+        <v>57100</v>
       </c>
       <c r="F102">
         <v>100</v>
@@ -2006,7 +2008,7 @@
       </c>
       <c r="B103">
         <f t="shared" si="3"/>
-        <v>58100</v>
+        <v>58200</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -2016,7 +2018,7 @@
       </c>
       <c r="B104">
         <f t="shared" si="3"/>
-        <v>59200</v>
+        <v>59300</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -2026,7 +2028,7 @@
       </c>
       <c r="B105">
         <f t="shared" si="3"/>
-        <v>60300</v>
+        <v>60400</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -2036,7 +2038,7 @@
       </c>
       <c r="B106">
         <f t="shared" si="3"/>
-        <v>61400</v>
+        <v>61500</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -2046,7 +2048,7 @@
       </c>
       <c r="B107">
         <f t="shared" si="3"/>
-        <v>62500</v>
+        <v>62600</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -2056,7 +2058,7 @@
       </c>
       <c r="B108">
         <f t="shared" si="3"/>
-        <v>63600</v>
+        <v>63700</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -2066,7 +2068,7 @@
       </c>
       <c r="B109">
         <f t="shared" si="3"/>
-        <v>64700</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -2076,7 +2078,7 @@
       </c>
       <c r="B110">
         <f t="shared" si="3"/>
-        <v>65800</v>
+        <v>65900</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -2086,7 +2088,7 @@
       </c>
       <c r="B111">
         <f t="shared" si="3"/>
-        <v>67000</v>
+        <v>67100</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -2096,7 +2098,7 @@
       </c>
       <c r="B112">
         <f t="shared" si="3"/>
-        <v>68200</v>
+        <v>68300</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -2106,7 +2108,7 @@
       </c>
       <c r="B113">
         <f t="shared" si="3"/>
-        <v>69400</v>
+        <v>69500</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -2116,7 +2118,7 @@
       </c>
       <c r="B114">
         <f t="shared" si="3"/>
-        <v>70600</v>
+        <v>70700</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -2126,7 +2128,7 @@
       </c>
       <c r="B115">
         <f t="shared" si="3"/>
-        <v>71800</v>
+        <v>71900</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -2136,7 +2138,7 @@
       </c>
       <c r="B116">
         <f t="shared" si="3"/>
-        <v>73000</v>
+        <v>73100</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -2146,7 +2148,7 @@
       </c>
       <c r="B117">
         <f t="shared" si="3"/>
-        <v>74200</v>
+        <v>74300</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -2156,7 +2158,7 @@
       </c>
       <c r="B118">
         <f t="shared" si="3"/>
-        <v>75400</v>
+        <v>75500</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -2166,7 +2168,7 @@
       </c>
       <c r="B119">
         <f t="shared" si="3"/>
-        <v>76600</v>
+        <v>76700</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -2176,7 +2178,7 @@
       </c>
       <c r="B120">
         <f t="shared" si="3"/>
-        <v>77800</v>
+        <v>77900</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -2186,7 +2188,7 @@
       </c>
       <c r="B121">
         <f t="shared" si="3"/>
-        <v>79100</v>
+        <v>79200</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -2196,7 +2198,7 @@
       </c>
       <c r="B122">
         <f t="shared" si="3"/>
-        <v>80400</v>
+        <v>80500</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -2206,7 +2208,7 @@
       </c>
       <c r="B123">
         <f t="shared" si="3"/>
-        <v>81700</v>
+        <v>81800</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -2216,7 +2218,7 @@
       </c>
       <c r="B124">
         <f t="shared" si="3"/>
-        <v>83000</v>
+        <v>83100</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -2226,7 +2228,7 @@
       </c>
       <c r="B125">
         <f t="shared" si="3"/>
-        <v>84300</v>
+        <v>84400</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -2236,7 +2238,7 @@
       </c>
       <c r="B126">
         <f t="shared" si="3"/>
-        <v>85600</v>
+        <v>85700</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -2246,7 +2248,7 @@
       </c>
       <c r="B127">
         <f t="shared" si="3"/>
-        <v>86900</v>
+        <v>87000</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -2256,7 +2258,7 @@
       </c>
       <c r="B128">
         <f t="shared" si="3"/>
-        <v>88200</v>
+        <v>88300</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -2266,7 +2268,7 @@
       </c>
       <c r="B129">
         <f t="shared" si="3"/>
-        <v>89500</v>
+        <v>89600</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -2276,7 +2278,7 @@
       </c>
       <c r="B130">
         <f t="shared" si="3"/>
-        <v>90800</v>
+        <v>90900</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -2286,7 +2288,7 @@
       </c>
       <c r="B131">
         <f t="shared" si="3"/>
-        <v>92200</v>
+        <v>92300</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -2296,7 +2298,7 @@
       </c>
       <c r="B132">
         <f t="shared" ref="B132:B195" si="5">B131+VLOOKUP(INT(A132/10), $F$2:$G$102, 2, FALSE)</f>
-        <v>93600</v>
+        <v>93700</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -2306,7 +2308,7 @@
       </c>
       <c r="B133">
         <f t="shared" si="5"/>
-        <v>95000</v>
+        <v>95100</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -2316,7 +2318,7 @@
       </c>
       <c r="B134">
         <f t="shared" si="5"/>
-        <v>96400</v>
+        <v>96500</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -2326,7 +2328,7 @@
       </c>
       <c r="B135">
         <f t="shared" si="5"/>
-        <v>97800</v>
+        <v>97900</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -2336,7 +2338,7 @@
       </c>
       <c r="B136">
         <f t="shared" si="5"/>
-        <v>99200</v>
+        <v>99300</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -2346,7 +2348,7 @@
       </c>
       <c r="B137">
         <f t="shared" si="5"/>
-        <v>100600</v>
+        <v>100700</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -2356,7 +2358,7 @@
       </c>
       <c r="B138">
         <f t="shared" si="5"/>
-        <v>102000</v>
+        <v>102100</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -2366,7 +2368,7 @@
       </c>
       <c r="B139">
         <f t="shared" si="5"/>
-        <v>103400</v>
+        <v>103500</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -2376,7 +2378,7 @@
       </c>
       <c r="B140">
         <f t="shared" si="5"/>
-        <v>104800</v>
+        <v>104900</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -2386,7 +2388,7 @@
       </c>
       <c r="B141">
         <f t="shared" si="5"/>
-        <v>106300</v>
+        <v>106400</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -2396,7 +2398,7 @@
       </c>
       <c r="B142">
         <f t="shared" si="5"/>
-        <v>107800</v>
+        <v>107900</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -2406,7 +2408,7 @@
       </c>
       <c r="B143">
         <f t="shared" si="5"/>
-        <v>109300</v>
+        <v>109400</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -2416,7 +2418,7 @@
       </c>
       <c r="B144">
         <f t="shared" si="5"/>
-        <v>110800</v>
+        <v>110900</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -2426,7 +2428,7 @@
       </c>
       <c r="B145">
         <f t="shared" si="5"/>
-        <v>112300</v>
+        <v>112400</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -2436,7 +2438,7 @@
       </c>
       <c r="B146">
         <f t="shared" si="5"/>
-        <v>113800</v>
+        <v>113900</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -2446,7 +2448,7 @@
       </c>
       <c r="B147">
         <f t="shared" si="5"/>
-        <v>115300</v>
+        <v>115400</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -2456,7 +2458,7 @@
       </c>
       <c r="B148">
         <f t="shared" si="5"/>
-        <v>116800</v>
+        <v>116900</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -2466,7 +2468,7 @@
       </c>
       <c r="B149">
         <f t="shared" si="5"/>
-        <v>118300</v>
+        <v>118400</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -2476,7 +2478,7 @@
       </c>
       <c r="B150">
         <f t="shared" si="5"/>
-        <v>119800</v>
+        <v>119900</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -2486,7 +2488,7 @@
       </c>
       <c r="B151">
         <f t="shared" si="5"/>
-        <v>121400</v>
+        <v>121500</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -2496,7 +2498,7 @@
       </c>
       <c r="B152">
         <f t="shared" si="5"/>
-        <v>123000</v>
+        <v>123100</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -2506,7 +2508,7 @@
       </c>
       <c r="B153">
         <f t="shared" si="5"/>
-        <v>124600</v>
+        <v>124700</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -2516,7 +2518,7 @@
       </c>
       <c r="B154">
         <f t="shared" si="5"/>
-        <v>126200</v>
+        <v>126300</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -2526,7 +2528,7 @@
       </c>
       <c r="B155">
         <f t="shared" si="5"/>
-        <v>127800</v>
+        <v>127900</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -2536,7 +2538,7 @@
       </c>
       <c r="B156">
         <f t="shared" si="5"/>
-        <v>129400</v>
+        <v>129500</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -2546,7 +2548,7 @@
       </c>
       <c r="B157">
         <f t="shared" si="5"/>
-        <v>131000</v>
+        <v>131100</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -2556,7 +2558,7 @@
       </c>
       <c r="B158">
         <f t="shared" si="5"/>
-        <v>132600</v>
+        <v>132700</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -2566,7 +2568,7 @@
       </c>
       <c r="B159">
         <f t="shared" si="5"/>
-        <v>134200</v>
+        <v>134300</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -2576,7 +2578,7 @@
       </c>
       <c r="B160">
         <f t="shared" si="5"/>
-        <v>135800</v>
+        <v>135900</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -2586,7 +2588,7 @@
       </c>
       <c r="B161">
         <f t="shared" si="5"/>
-        <v>137500</v>
+        <v>137600</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -2596,7 +2598,7 @@
       </c>
       <c r="B162">
         <f t="shared" si="5"/>
-        <v>139200</v>
+        <v>139300</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -2606,7 +2608,7 @@
       </c>
       <c r="B163">
         <f t="shared" si="5"/>
-        <v>140900</v>
+        <v>141000</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -2616,7 +2618,7 @@
       </c>
       <c r="B164">
         <f t="shared" si="5"/>
-        <v>142600</v>
+        <v>142700</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -2626,7 +2628,7 @@
       </c>
       <c r="B165">
         <f t="shared" si="5"/>
-        <v>144300</v>
+        <v>144400</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -2636,7 +2638,7 @@
       </c>
       <c r="B166">
         <f t="shared" si="5"/>
-        <v>146000</v>
+        <v>146100</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -2646,7 +2648,7 @@
       </c>
       <c r="B167">
         <f t="shared" si="5"/>
-        <v>147700</v>
+        <v>147800</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -2656,7 +2658,7 @@
       </c>
       <c r="B168">
         <f t="shared" si="5"/>
-        <v>149400</v>
+        <v>149500</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -2666,7 +2668,7 @@
       </c>
       <c r="B169">
         <f t="shared" si="5"/>
-        <v>151100</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -2676,7 +2678,7 @@
       </c>
       <c r="B170">
         <f t="shared" si="5"/>
-        <v>152800</v>
+        <v>152900</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -2686,7 +2688,7 @@
       </c>
       <c r="B171">
         <f t="shared" si="5"/>
-        <v>154600</v>
+        <v>154700</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -2696,7 +2698,7 @@
       </c>
       <c r="B172">
         <f t="shared" si="5"/>
-        <v>156400</v>
+        <v>156500</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -2706,7 +2708,7 @@
       </c>
       <c r="B173">
         <f t="shared" si="5"/>
-        <v>158200</v>
+        <v>158300</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -2716,7 +2718,7 @@
       </c>
       <c r="B174">
         <f t="shared" si="5"/>
-        <v>160000</v>
+        <v>160100</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -2726,7 +2728,7 @@
       </c>
       <c r="B175">
         <f t="shared" si="5"/>
-        <v>161800</v>
+        <v>161900</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -2736,7 +2738,7 @@
       </c>
       <c r="B176">
         <f t="shared" si="5"/>
-        <v>163600</v>
+        <v>163700</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -2746,7 +2748,7 @@
       </c>
       <c r="B177">
         <f t="shared" si="5"/>
-        <v>165400</v>
+        <v>165500</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -2756,7 +2758,7 @@
       </c>
       <c r="B178">
         <f t="shared" si="5"/>
-        <v>167200</v>
+        <v>167300</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -2766,7 +2768,7 @@
       </c>
       <c r="B179">
         <f t="shared" si="5"/>
-        <v>169000</v>
+        <v>169100</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -2776,7 +2778,7 @@
       </c>
       <c r="B180">
         <f t="shared" si="5"/>
-        <v>170800</v>
+        <v>170900</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -2786,7 +2788,7 @@
       </c>
       <c r="B181">
         <f t="shared" si="5"/>
-        <v>172700</v>
+        <v>172800</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -2796,7 +2798,7 @@
       </c>
       <c r="B182">
         <f t="shared" si="5"/>
-        <v>174600</v>
+        <v>174700</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -2806,7 +2808,7 @@
       </c>
       <c r="B183">
         <f t="shared" si="5"/>
-        <v>176500</v>
+        <v>176600</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -2816,7 +2818,7 @@
       </c>
       <c r="B184">
         <f t="shared" si="5"/>
-        <v>178400</v>
+        <v>178500</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -2826,7 +2828,7 @@
       </c>
       <c r="B185">
         <f t="shared" si="5"/>
-        <v>180300</v>
+        <v>180400</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -2836,7 +2838,7 @@
       </c>
       <c r="B186">
         <f t="shared" si="5"/>
-        <v>182200</v>
+        <v>182300</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -2846,7 +2848,7 @@
       </c>
       <c r="B187">
         <f t="shared" si="5"/>
-        <v>184100</v>
+        <v>184200</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -2856,7 +2858,7 @@
       </c>
       <c r="B188">
         <f t="shared" si="5"/>
-        <v>186000</v>
+        <v>186100</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -2866,7 +2868,7 @@
       </c>
       <c r="B189">
         <f t="shared" si="5"/>
-        <v>187900</v>
+        <v>188000</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -2876,7 +2878,7 @@
       </c>
       <c r="B190">
         <f t="shared" si="5"/>
-        <v>189800</v>
+        <v>189900</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -2886,7 +2888,7 @@
       </c>
       <c r="B191">
         <f t="shared" si="5"/>
-        <v>191800</v>
+        <v>191900</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -2896,7 +2898,7 @@
       </c>
       <c r="B192">
         <f t="shared" si="5"/>
-        <v>193800</v>
+        <v>193900</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -2906,7 +2908,7 @@
       </c>
       <c r="B193">
         <f t="shared" si="5"/>
-        <v>195800</v>
+        <v>195900</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -2916,7 +2918,7 @@
       </c>
       <c r="B194">
         <f t="shared" si="5"/>
-        <v>197800</v>
+        <v>197900</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -2926,7 +2928,7 @@
       </c>
       <c r="B195">
         <f t="shared" si="5"/>
-        <v>199800</v>
+        <v>199900</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -2936,7 +2938,7 @@
       </c>
       <c r="B196">
         <f t="shared" ref="B196:B259" si="7">B195+VLOOKUP(INT(A196/10), $F$2:$G$102, 2, FALSE)</f>
-        <v>201800</v>
+        <v>201900</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -2946,7 +2948,7 @@
       </c>
       <c r="B197">
         <f t="shared" si="7"/>
-        <v>203800</v>
+        <v>203900</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -2956,7 +2958,7 @@
       </c>
       <c r="B198">
         <f t="shared" si="7"/>
-        <v>205800</v>
+        <v>205900</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -2966,7 +2968,7 @@
       </c>
       <c r="B199">
         <f t="shared" si="7"/>
-        <v>207800</v>
+        <v>207900</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -2976,7 +2978,7 @@
       </c>
       <c r="B200">
         <f t="shared" si="7"/>
-        <v>209800</v>
+        <v>209900</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -2986,7 +2988,7 @@
       </c>
       <c r="B201">
         <f t="shared" si="7"/>
-        <v>211900</v>
+        <v>212000</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -2996,7 +2998,7 @@
       </c>
       <c r="B202">
         <f t="shared" si="7"/>
-        <v>214000</v>
+        <v>214100</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -3006,7 +3008,7 @@
       </c>
       <c r="B203">
         <f t="shared" si="7"/>
-        <v>216100</v>
+        <v>216200</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -3016,7 +3018,7 @@
       </c>
       <c r="B204">
         <f t="shared" si="7"/>
-        <v>218200</v>
+        <v>218300</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -3026,7 +3028,7 @@
       </c>
       <c r="B205">
         <f t="shared" si="7"/>
-        <v>220300</v>
+        <v>220400</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -3036,7 +3038,7 @@
       </c>
       <c r="B206">
         <f t="shared" si="7"/>
-        <v>222400</v>
+        <v>222500</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -3046,7 +3048,7 @@
       </c>
       <c r="B207">
         <f t="shared" si="7"/>
-        <v>224500</v>
+        <v>224600</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -3056,7 +3058,7 @@
       </c>
       <c r="B208">
         <f t="shared" si="7"/>
-        <v>226600</v>
+        <v>226700</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -3066,7 +3068,7 @@
       </c>
       <c r="B209">
         <f t="shared" si="7"/>
-        <v>228700</v>
+        <v>228800</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -3076,7 +3078,7 @@
       </c>
       <c r="B210">
         <f t="shared" si="7"/>
-        <v>230800</v>
+        <v>230900</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -3086,7 +3088,7 @@
       </c>
       <c r="B211">
         <f t="shared" si="7"/>
-        <v>233000</v>
+        <v>233100</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -3096,7 +3098,7 @@
       </c>
       <c r="B212">
         <f t="shared" si="7"/>
-        <v>235200</v>
+        <v>235300</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -3106,7 +3108,7 @@
       </c>
       <c r="B213">
         <f t="shared" si="7"/>
-        <v>237400</v>
+        <v>237500</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -3116,7 +3118,7 @@
       </c>
       <c r="B214">
         <f t="shared" si="7"/>
-        <v>239600</v>
+        <v>239700</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -3126,7 +3128,7 @@
       </c>
       <c r="B215">
         <f t="shared" si="7"/>
-        <v>241800</v>
+        <v>241900</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -3136,7 +3138,7 @@
       </c>
       <c r="B216">
         <f t="shared" si="7"/>
-        <v>244000</v>
+        <v>244100</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -3146,7 +3148,7 @@
       </c>
       <c r="B217">
         <f t="shared" si="7"/>
-        <v>246200</v>
+        <v>246300</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -3156,7 +3158,7 @@
       </c>
       <c r="B218">
         <f t="shared" si="7"/>
-        <v>248400</v>
+        <v>248500</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -3166,7 +3168,7 @@
       </c>
       <c r="B219">
         <f t="shared" si="7"/>
-        <v>250600</v>
+        <v>250700</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -3176,7 +3178,7 @@
       </c>
       <c r="B220">
         <f t="shared" si="7"/>
-        <v>252800</v>
+        <v>252900</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -3186,7 +3188,7 @@
       </c>
       <c r="B221">
         <f t="shared" si="7"/>
-        <v>255100</v>
+        <v>255200</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -3196,7 +3198,7 @@
       </c>
       <c r="B222">
         <f t="shared" si="7"/>
-        <v>257400</v>
+        <v>257500</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -3206,7 +3208,7 @@
       </c>
       <c r="B223">
         <f t="shared" si="7"/>
-        <v>259700</v>
+        <v>259800</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -3216,7 +3218,7 @@
       </c>
       <c r="B224">
         <f t="shared" si="7"/>
-        <v>262000</v>
+        <v>262100</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -3226,7 +3228,7 @@
       </c>
       <c r="B225">
         <f t="shared" si="7"/>
-        <v>264300</v>
+        <v>264400</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -3236,7 +3238,7 @@
       </c>
       <c r="B226">
         <f t="shared" si="7"/>
-        <v>266600</v>
+        <v>266700</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -3246,7 +3248,7 @@
       </c>
       <c r="B227">
         <f t="shared" si="7"/>
-        <v>268900</v>
+        <v>269000</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -3256,7 +3258,7 @@
       </c>
       <c r="B228">
         <f t="shared" si="7"/>
-        <v>271200</v>
+        <v>271300</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -3266,7 +3268,7 @@
       </c>
       <c r="B229">
         <f t="shared" si="7"/>
-        <v>273500</v>
+        <v>273600</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -3276,7 +3278,7 @@
       </c>
       <c r="B230">
         <f t="shared" si="7"/>
-        <v>275800</v>
+        <v>275900</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -3286,7 +3288,7 @@
       </c>
       <c r="B231">
         <f t="shared" si="7"/>
-        <v>278200</v>
+        <v>278300</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -3296,7 +3298,7 @@
       </c>
       <c r="B232">
         <f t="shared" si="7"/>
-        <v>280600</v>
+        <v>280700</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -3306,7 +3308,7 @@
       </c>
       <c r="B233">
         <f t="shared" si="7"/>
-        <v>283000</v>
+        <v>283100</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -3316,7 +3318,7 @@
       </c>
       <c r="B234">
         <f t="shared" si="7"/>
-        <v>285400</v>
+        <v>285500</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -3326,7 +3328,7 @@
       </c>
       <c r="B235">
         <f t="shared" si="7"/>
-        <v>287800</v>
+        <v>287900</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -3336,7 +3338,7 @@
       </c>
       <c r="B236">
         <f t="shared" si="7"/>
-        <v>290200</v>
+        <v>290300</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -3346,7 +3348,7 @@
       </c>
       <c r="B237">
         <f t="shared" si="7"/>
-        <v>292600</v>
+        <v>292700</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -3356,7 +3358,7 @@
       </c>
       <c r="B238">
         <f t="shared" si="7"/>
-        <v>295000</v>
+        <v>295100</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -3366,7 +3368,7 @@
       </c>
       <c r="B239">
         <f t="shared" si="7"/>
-        <v>297400</v>
+        <v>297500</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -3376,7 +3378,7 @@
       </c>
       <c r="B240">
         <f t="shared" si="7"/>
-        <v>299800</v>
+        <v>299900</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -3386,7 +3388,7 @@
       </c>
       <c r="B241">
         <f t="shared" si="7"/>
-        <v>302300</v>
+        <v>302400</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -3396,7 +3398,7 @@
       </c>
       <c r="B242">
         <f t="shared" si="7"/>
-        <v>304800</v>
+        <v>304900</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -3406,7 +3408,7 @@
       </c>
       <c r="B243">
         <f t="shared" si="7"/>
-        <v>307300</v>
+        <v>307400</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -3416,7 +3418,7 @@
       </c>
       <c r="B244">
         <f t="shared" si="7"/>
-        <v>309800</v>
+        <v>309900</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -3426,7 +3428,7 @@
       </c>
       <c r="B245">
         <f t="shared" si="7"/>
-        <v>312300</v>
+        <v>312400</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -3436,7 +3438,7 @@
       </c>
       <c r="B246">
         <f t="shared" si="7"/>
-        <v>314800</v>
+        <v>314900</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -3446,7 +3448,7 @@
       </c>
       <c r="B247">
         <f t="shared" si="7"/>
-        <v>317300</v>
+        <v>317400</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -3456,7 +3458,7 @@
       </c>
       <c r="B248">
         <f t="shared" si="7"/>
-        <v>319800</v>
+        <v>319900</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -3466,7 +3468,7 @@
       </c>
       <c r="B249">
         <f t="shared" si="7"/>
-        <v>322300</v>
+        <v>322400</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -3476,7 +3478,7 @@
       </c>
       <c r="B250">
         <f t="shared" si="7"/>
-        <v>324800</v>
+        <v>324900</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -3486,7 +3488,7 @@
       </c>
       <c r="B251">
         <f t="shared" si="7"/>
-        <v>327400</v>
+        <v>327500</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -3496,7 +3498,7 @@
       </c>
       <c r="B252">
         <f t="shared" si="7"/>
-        <v>330000</v>
+        <v>330100</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -3506,7 +3508,7 @@
       </c>
       <c r="B253">
         <f t="shared" si="7"/>
-        <v>332600</v>
+        <v>332700</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -3516,7 +3518,7 @@
       </c>
       <c r="B254">
         <f t="shared" si="7"/>
-        <v>335200</v>
+        <v>335300</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -3526,7 +3528,7 @@
       </c>
       <c r="B255">
         <f t="shared" si="7"/>
-        <v>337800</v>
+        <v>337900</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -3536,7 +3538,7 @@
       </c>
       <c r="B256">
         <f t="shared" si="7"/>
-        <v>340400</v>
+        <v>340500</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -3546,7 +3548,7 @@
       </c>
       <c r="B257">
         <f t="shared" si="7"/>
-        <v>343000</v>
+        <v>343100</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -3556,7 +3558,7 @@
       </c>
       <c r="B258">
         <f t="shared" si="7"/>
-        <v>345600</v>
+        <v>345700</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -3566,7 +3568,7 @@
       </c>
       <c r="B259">
         <f t="shared" si="7"/>
-        <v>348200</v>
+        <v>348300</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -3576,7 +3578,7 @@
       </c>
       <c r="B260">
         <f t="shared" ref="B260:B323" si="9">B259+VLOOKUP(INT(A260/10), $F$2:$G$102, 2, FALSE)</f>
-        <v>350800</v>
+        <v>350900</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -3586,7 +3588,7 @@
       </c>
       <c r="B261">
         <f t="shared" si="9"/>
-        <v>353500</v>
+        <v>353600</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -3596,7 +3598,7 @@
       </c>
       <c r="B262">
         <f t="shared" si="9"/>
-        <v>356200</v>
+        <v>356300</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -3606,7 +3608,7 @@
       </c>
       <c r="B263">
         <f t="shared" si="9"/>
-        <v>358900</v>
+        <v>359000</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -3616,7 +3618,7 @@
       </c>
       <c r="B264">
         <f t="shared" si="9"/>
-        <v>361600</v>
+        <v>361700</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -3626,7 +3628,7 @@
       </c>
       <c r="B265">
         <f t="shared" si="9"/>
-        <v>364300</v>
+        <v>364400</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -3636,7 +3638,7 @@
       </c>
       <c r="B266">
         <f t="shared" si="9"/>
-        <v>367000</v>
+        <v>367100</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -3646,7 +3648,7 @@
       </c>
       <c r="B267">
         <f t="shared" si="9"/>
-        <v>369700</v>
+        <v>369800</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -3656,7 +3658,7 @@
       </c>
       <c r="B268">
         <f t="shared" si="9"/>
-        <v>372400</v>
+        <v>372500</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -3666,7 +3668,7 @@
       </c>
       <c r="B269">
         <f t="shared" si="9"/>
-        <v>375100</v>
+        <v>375200</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -3676,7 +3678,7 @@
       </c>
       <c r="B270">
         <f t="shared" si="9"/>
-        <v>377800</v>
+        <v>377900</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -3686,7 +3688,7 @@
       </c>
       <c r="B271">
         <f t="shared" si="9"/>
-        <v>380600</v>
+        <v>380700</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -3696,7 +3698,7 @@
       </c>
       <c r="B272">
         <f t="shared" si="9"/>
-        <v>383400</v>
+        <v>383500</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -3706,7 +3708,7 @@
       </c>
       <c r="B273">
         <f t="shared" si="9"/>
-        <v>386200</v>
+        <v>386300</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -3716,7 +3718,7 @@
       </c>
       <c r="B274">
         <f t="shared" si="9"/>
-        <v>389000</v>
+        <v>389100</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -3726,7 +3728,7 @@
       </c>
       <c r="B275">
         <f t="shared" si="9"/>
-        <v>391800</v>
+        <v>391900</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -3736,7 +3738,7 @@
       </c>
       <c r="B276">
         <f t="shared" si="9"/>
-        <v>394600</v>
+        <v>394700</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -3746,7 +3748,7 @@
       </c>
       <c r="B277">
         <f t="shared" si="9"/>
-        <v>397400</v>
+        <v>397500</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -3756,7 +3758,7 @@
       </c>
       <c r="B278">
         <f t="shared" si="9"/>
-        <v>400200</v>
+        <v>400300</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -3766,7 +3768,7 @@
       </c>
       <c r="B279">
         <f t="shared" si="9"/>
-        <v>403000</v>
+        <v>403100</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -3776,7 +3778,7 @@
       </c>
       <c r="B280">
         <f t="shared" si="9"/>
-        <v>405800</v>
+        <v>405900</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -3786,7 +3788,7 @@
       </c>
       <c r="B281">
         <f t="shared" si="9"/>
-        <v>408700</v>
+        <v>408800</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -3796,7 +3798,7 @@
       </c>
       <c r="B282">
         <f t="shared" si="9"/>
-        <v>411600</v>
+        <v>411700</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -3806,7 +3808,7 @@
       </c>
       <c r="B283">
         <f t="shared" si="9"/>
-        <v>414500</v>
+        <v>414600</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -3816,7 +3818,7 @@
       </c>
       <c r="B284">
         <f t="shared" si="9"/>
-        <v>417400</v>
+        <v>417500</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -3826,7 +3828,7 @@
       </c>
       <c r="B285">
         <f t="shared" si="9"/>
-        <v>420300</v>
+        <v>420400</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -3836,7 +3838,7 @@
       </c>
       <c r="B286">
         <f t="shared" si="9"/>
-        <v>423200</v>
+        <v>423300</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -3846,7 +3848,7 @@
       </c>
       <c r="B287">
         <f t="shared" si="9"/>
-        <v>426100</v>
+        <v>426200</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -3856,7 +3858,7 @@
       </c>
       <c r="B288">
         <f t="shared" si="9"/>
-        <v>429000</v>
+        <v>429100</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -3866,7 +3868,7 @@
       </c>
       <c r="B289">
         <f t="shared" si="9"/>
-        <v>431900</v>
+        <v>432000</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -3876,7 +3878,7 @@
       </c>
       <c r="B290">
         <f t="shared" si="9"/>
-        <v>434800</v>
+        <v>434900</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -3886,7 +3888,7 @@
       </c>
       <c r="B291">
         <f t="shared" si="9"/>
-        <v>437800</v>
+        <v>437900</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -3896,7 +3898,7 @@
       </c>
       <c r="B292">
         <f t="shared" si="9"/>
-        <v>440800</v>
+        <v>440900</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -3906,7 +3908,7 @@
       </c>
       <c r="B293">
         <f t="shared" si="9"/>
-        <v>443800</v>
+        <v>443900</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -3916,7 +3918,7 @@
       </c>
       <c r="B294">
         <f t="shared" si="9"/>
-        <v>446800</v>
+        <v>446900</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -3926,7 +3928,7 @@
       </c>
       <c r="B295">
         <f t="shared" si="9"/>
-        <v>449800</v>
+        <v>449900</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -3936,7 +3938,7 @@
       </c>
       <c r="B296">
         <f t="shared" si="9"/>
-        <v>452800</v>
+        <v>452900</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -3946,7 +3948,7 @@
       </c>
       <c r="B297">
         <f t="shared" si="9"/>
-        <v>455800</v>
+        <v>455900</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -3956,7 +3958,7 @@
       </c>
       <c r="B298">
         <f t="shared" si="9"/>
-        <v>458800</v>
+        <v>458900</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -3966,7 +3968,7 @@
       </c>
       <c r="B299">
         <f t="shared" si="9"/>
-        <v>461800</v>
+        <v>461900</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -3976,7 +3978,7 @@
       </c>
       <c r="B300">
         <f t="shared" si="9"/>
-        <v>464800</v>
+        <v>464900</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -3986,7 +3988,7 @@
       </c>
       <c r="B301">
         <f t="shared" si="9"/>
-        <v>467900</v>
+        <v>468000</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -3996,7 +3998,7 @@
       </c>
       <c r="B302">
         <f t="shared" si="9"/>
-        <v>471000</v>
+        <v>471100</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -4006,7 +4008,7 @@
       </c>
       <c r="B303">
         <f t="shared" si="9"/>
-        <v>474100</v>
+        <v>474200</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -4016,7 +4018,7 @@
       </c>
       <c r="B304">
         <f t="shared" si="9"/>
-        <v>477200</v>
+        <v>477300</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -4026,7 +4028,7 @@
       </c>
       <c r="B305">
         <f t="shared" si="9"/>
-        <v>480300</v>
+        <v>480400</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -4036,7 +4038,7 @@
       </c>
       <c r="B306">
         <f t="shared" si="9"/>
-        <v>483400</v>
+        <v>483500</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -4046,7 +4048,7 @@
       </c>
       <c r="B307">
         <f t="shared" si="9"/>
-        <v>486500</v>
+        <v>486600</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -4056,7 +4058,7 @@
       </c>
       <c r="B308">
         <f t="shared" si="9"/>
-        <v>489600</v>
+        <v>489700</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -4066,7 +4068,7 @@
       </c>
       <c r="B309">
         <f t="shared" si="9"/>
-        <v>492700</v>
+        <v>492800</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -4076,7 +4078,7 @@
       </c>
       <c r="B310">
         <f t="shared" si="9"/>
-        <v>495800</v>
+        <v>495900</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -4086,7 +4088,7 @@
       </c>
       <c r="B311">
         <f t="shared" si="9"/>
-        <v>499000</v>
+        <v>499100</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -4096,7 +4098,7 @@
       </c>
       <c r="B312">
         <f t="shared" si="9"/>
-        <v>502200</v>
+        <v>502300</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -4106,7 +4108,7 @@
       </c>
       <c r="B313">
         <f t="shared" si="9"/>
-        <v>505400</v>
+        <v>505500</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -4116,7 +4118,7 @@
       </c>
       <c r="B314">
         <f t="shared" si="9"/>
-        <v>508600</v>
+        <v>508700</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -4126,7 +4128,7 @@
       </c>
       <c r="B315">
         <f t="shared" si="9"/>
-        <v>511800</v>
+        <v>511900</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -4136,7 +4138,7 @@
       </c>
       <c r="B316">
         <f t="shared" si="9"/>
-        <v>515000</v>
+        <v>515100</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -4146,7 +4148,7 @@
       </c>
       <c r="B317">
         <f t="shared" si="9"/>
-        <v>518200</v>
+        <v>518300</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -4156,7 +4158,7 @@
       </c>
       <c r="B318">
         <f t="shared" si="9"/>
-        <v>521400</v>
+        <v>521500</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -4166,7 +4168,7 @@
       </c>
       <c r="B319">
         <f t="shared" si="9"/>
-        <v>524600</v>
+        <v>524700</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -4176,7 +4178,7 @@
       </c>
       <c r="B320">
         <f t="shared" si="9"/>
-        <v>527800</v>
+        <v>527900</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -4186,7 +4188,7 @@
       </c>
       <c r="B321">
         <f t="shared" si="9"/>
-        <v>531100</v>
+        <v>531200</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -4196,7 +4198,7 @@
       </c>
       <c r="B322">
         <f t="shared" si="9"/>
-        <v>534400</v>
+        <v>534500</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -4206,7 +4208,7 @@
       </c>
       <c r="B323">
         <f t="shared" si="9"/>
-        <v>537700</v>
+        <v>537800</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -4216,7 +4218,7 @@
       </c>
       <c r="B324">
         <f t="shared" ref="B324:B387" si="11">B323+VLOOKUP(INT(A324/10), $F$2:$G$102, 2, FALSE)</f>
-        <v>541000</v>
+        <v>541100</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -4226,7 +4228,7 @@
       </c>
       <c r="B325">
         <f t="shared" si="11"/>
-        <v>544300</v>
+        <v>544400</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -4236,7 +4238,7 @@
       </c>
       <c r="B326">
         <f t="shared" si="11"/>
-        <v>547600</v>
+        <v>547700</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -4246,7 +4248,7 @@
       </c>
       <c r="B327">
         <f t="shared" si="11"/>
-        <v>550900</v>
+        <v>551000</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -4256,7 +4258,7 @@
       </c>
       <c r="B328">
         <f t="shared" si="11"/>
-        <v>554200</v>
+        <v>554300</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -4266,7 +4268,7 @@
       </c>
       <c r="B329">
         <f t="shared" si="11"/>
-        <v>557500</v>
+        <v>557600</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -4276,7 +4278,7 @@
       </c>
       <c r="B330">
         <f t="shared" si="11"/>
-        <v>560800</v>
+        <v>560900</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -4286,7 +4288,7 @@
       </c>
       <c r="B331">
         <f t="shared" si="11"/>
-        <v>564200</v>
+        <v>564300</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -4296,7 +4298,7 @@
       </c>
       <c r="B332">
         <f t="shared" si="11"/>
-        <v>567600</v>
+        <v>567700</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -4306,7 +4308,7 @@
       </c>
       <c r="B333">
         <f t="shared" si="11"/>
-        <v>571000</v>
+        <v>571100</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -4316,7 +4318,7 @@
       </c>
       <c r="B334">
         <f t="shared" si="11"/>
-        <v>574400</v>
+        <v>574500</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -4326,7 +4328,7 @@
       </c>
       <c r="B335">
         <f t="shared" si="11"/>
-        <v>577800</v>
+        <v>577900</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -4336,7 +4338,7 @@
       </c>
       <c r="B336">
         <f t="shared" si="11"/>
-        <v>581200</v>
+        <v>581300</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -4346,7 +4348,7 @@
       </c>
       <c r="B337">
         <f t="shared" si="11"/>
-        <v>584600</v>
+        <v>584700</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -4356,7 +4358,7 @@
       </c>
       <c r="B338">
         <f t="shared" si="11"/>
-        <v>588000</v>
+        <v>588100</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -4366,7 +4368,7 @@
       </c>
       <c r="B339">
         <f t="shared" si="11"/>
-        <v>591400</v>
+        <v>591500</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -4376,7 +4378,7 @@
       </c>
       <c r="B340">
         <f t="shared" si="11"/>
-        <v>594800</v>
+        <v>594900</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -4386,7 +4388,7 @@
       </c>
       <c r="B341">
         <f t="shared" si="11"/>
-        <v>598300</v>
+        <v>598400</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -4396,7 +4398,7 @@
       </c>
       <c r="B342">
         <f t="shared" si="11"/>
-        <v>601800</v>
+        <v>601900</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -4406,7 +4408,7 @@
       </c>
       <c r="B343">
         <f t="shared" si="11"/>
-        <v>605300</v>
+        <v>605400</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -4416,7 +4418,7 @@
       </c>
       <c r="B344">
         <f t="shared" si="11"/>
-        <v>608800</v>
+        <v>608900</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
@@ -4426,7 +4428,7 @@
       </c>
       <c r="B345">
         <f t="shared" si="11"/>
-        <v>612300</v>
+        <v>612400</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -4436,7 +4438,7 @@
       </c>
       <c r="B346">
         <f t="shared" si="11"/>
-        <v>615800</v>
+        <v>615900</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -4446,7 +4448,7 @@
       </c>
       <c r="B347">
         <f t="shared" si="11"/>
-        <v>619300</v>
+        <v>619400</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -4456,7 +4458,7 @@
       </c>
       <c r="B348">
         <f t="shared" si="11"/>
-        <v>622800</v>
+        <v>622900</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -4466,7 +4468,7 @@
       </c>
       <c r="B349">
         <f t="shared" si="11"/>
-        <v>626300</v>
+        <v>626400</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -4476,7 +4478,7 @@
       </c>
       <c r="B350">
         <f t="shared" si="11"/>
-        <v>629800</v>
+        <v>629900</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -4486,7 +4488,7 @@
       </c>
       <c r="B351">
         <f t="shared" si="11"/>
-        <v>633400</v>
+        <v>633500</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -4496,7 +4498,7 @@
       </c>
       <c r="B352">
         <f t="shared" si="11"/>
-        <v>637000</v>
+        <v>637100</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -4506,7 +4508,7 @@
       </c>
       <c r="B353">
         <f t="shared" si="11"/>
-        <v>640600</v>
+        <v>640700</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -4516,7 +4518,7 @@
       </c>
       <c r="B354">
         <f t="shared" si="11"/>
-        <v>644200</v>
+        <v>644300</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -4526,7 +4528,7 @@
       </c>
       <c r="B355">
         <f t="shared" si="11"/>
-        <v>647800</v>
+        <v>647900</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -4536,7 +4538,7 @@
       </c>
       <c r="B356">
         <f t="shared" si="11"/>
-        <v>651400</v>
+        <v>651500</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -4546,7 +4548,7 @@
       </c>
       <c r="B357">
         <f t="shared" si="11"/>
-        <v>655000</v>
+        <v>655100</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -4556,7 +4558,7 @@
       </c>
       <c r="B358">
         <f t="shared" si="11"/>
-        <v>658600</v>
+        <v>658700</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -4566,7 +4568,7 @@
       </c>
       <c r="B359">
         <f t="shared" si="11"/>
-        <v>662200</v>
+        <v>662300</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -4576,7 +4578,7 @@
       </c>
       <c r="B360">
         <f t="shared" si="11"/>
-        <v>665800</v>
+        <v>665900</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -4586,7 +4588,7 @@
       </c>
       <c r="B361">
         <f t="shared" si="11"/>
-        <v>669500</v>
+        <v>669600</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -4596,7 +4598,7 @@
       </c>
       <c r="B362">
         <f t="shared" si="11"/>
-        <v>673200</v>
+        <v>673300</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -4606,7 +4608,7 @@
       </c>
       <c r="B363">
         <f t="shared" si="11"/>
-        <v>676900</v>
+        <v>677000</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -4616,7 +4618,7 @@
       </c>
       <c r="B364">
         <f t="shared" si="11"/>
-        <v>680600</v>
+        <v>680700</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -4626,7 +4628,7 @@
       </c>
       <c r="B365">
         <f t="shared" si="11"/>
-        <v>684300</v>
+        <v>684400</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -4636,7 +4638,7 @@
       </c>
       <c r="B366">
         <f t="shared" si="11"/>
-        <v>688000</v>
+        <v>688100</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -4646,7 +4648,7 @@
       </c>
       <c r="B367">
         <f t="shared" si="11"/>
-        <v>691700</v>
+        <v>691800</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -4656,7 +4658,7 @@
       </c>
       <c r="B368">
         <f t="shared" si="11"/>
-        <v>695400</v>
+        <v>695500</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -4666,7 +4668,7 @@
       </c>
       <c r="B369">
         <f t="shared" si="11"/>
-        <v>699100</v>
+        <v>699200</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -4676,7 +4678,7 @@
       </c>
       <c r="B370">
         <f t="shared" si="11"/>
-        <v>702800</v>
+        <v>702900</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -4686,7 +4688,7 @@
       </c>
       <c r="B371">
         <f t="shared" si="11"/>
-        <v>706600</v>
+        <v>706700</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -4696,7 +4698,7 @@
       </c>
       <c r="B372">
         <f t="shared" si="11"/>
-        <v>710400</v>
+        <v>710500</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -4706,7 +4708,7 @@
       </c>
       <c r="B373">
         <f t="shared" si="11"/>
-        <v>714200</v>
+        <v>714300</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -4716,7 +4718,7 @@
       </c>
       <c r="B374">
         <f t="shared" si="11"/>
-        <v>718000</v>
+        <v>718100</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -4726,7 +4728,7 @@
       </c>
       <c r="B375">
         <f t="shared" si="11"/>
-        <v>721800</v>
+        <v>721900</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -4736,7 +4738,7 @@
       </c>
       <c r="B376">
         <f t="shared" si="11"/>
-        <v>725600</v>
+        <v>725700</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -4746,7 +4748,7 @@
       </c>
       <c r="B377">
         <f t="shared" si="11"/>
-        <v>729400</v>
+        <v>729500</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -4756,7 +4758,7 @@
       </c>
       <c r="B378">
         <f t="shared" si="11"/>
-        <v>733200</v>
+        <v>733300</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -4766,7 +4768,7 @@
       </c>
       <c r="B379">
         <f t="shared" si="11"/>
-        <v>737000</v>
+        <v>737100</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -4776,7 +4778,7 @@
       </c>
       <c r="B380">
         <f t="shared" si="11"/>
-        <v>740800</v>
+        <v>740900</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -4786,7 +4788,7 @@
       </c>
       <c r="B381">
         <f t="shared" si="11"/>
-        <v>744700</v>
+        <v>744800</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
@@ -4796,7 +4798,7 @@
       </c>
       <c r="B382">
         <f t="shared" si="11"/>
-        <v>748600</v>
+        <v>748700</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -4806,7 +4808,7 @@
       </c>
       <c r="B383">
         <f t="shared" si="11"/>
-        <v>752500</v>
+        <v>752600</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -4816,7 +4818,7 @@
       </c>
       <c r="B384">
         <f t="shared" si="11"/>
-        <v>756400</v>
+        <v>756500</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -4826,7 +4828,7 @@
       </c>
       <c r="B385">
         <f t="shared" si="11"/>
-        <v>760300</v>
+        <v>760400</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -4836,7 +4838,7 @@
       </c>
       <c r="B386">
         <f t="shared" si="11"/>
-        <v>764200</v>
+        <v>764300</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -4846,7 +4848,7 @@
       </c>
       <c r="B387">
         <f t="shared" si="11"/>
-        <v>768100</v>
+        <v>768200</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -4856,7 +4858,7 @@
       </c>
       <c r="B388">
         <f t="shared" ref="B388:B451" si="13">B387+VLOOKUP(INT(A388/10), $F$2:$G$102, 2, FALSE)</f>
-        <v>772000</v>
+        <v>772100</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -4866,7 +4868,7 @@
       </c>
       <c r="B389">
         <f t="shared" si="13"/>
-        <v>775900</v>
+        <v>776000</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
@@ -4876,7 +4878,7 @@
       </c>
       <c r="B390">
         <f t="shared" si="13"/>
-        <v>779800</v>
+        <v>779900</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -4886,7 +4888,7 @@
       </c>
       <c r="B391">
         <f t="shared" si="13"/>
-        <v>783800</v>
+        <v>783900</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -4896,7 +4898,7 @@
       </c>
       <c r="B392">
         <f t="shared" si="13"/>
-        <v>787800</v>
+        <v>787900</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -4906,7 +4908,7 @@
       </c>
       <c r="B393">
         <f t="shared" si="13"/>
-        <v>791800</v>
+        <v>791900</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -4916,7 +4918,7 @@
       </c>
       <c r="B394">
         <f t="shared" si="13"/>
-        <v>795800</v>
+        <v>795900</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -4926,7 +4928,7 @@
       </c>
       <c r="B395">
         <f t="shared" si="13"/>
-        <v>799800</v>
+        <v>799900</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -4936,7 +4938,7 @@
       </c>
       <c r="B396">
         <f t="shared" si="13"/>
-        <v>803800</v>
+        <v>803900</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -4946,7 +4948,7 @@
       </c>
       <c r="B397">
         <f t="shared" si="13"/>
-        <v>807800</v>
+        <v>807900</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
@@ -4956,7 +4958,7 @@
       </c>
       <c r="B398">
         <f t="shared" si="13"/>
-        <v>811800</v>
+        <v>811900</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
@@ -4966,7 +4968,7 @@
       </c>
       <c r="B399">
         <f t="shared" si="13"/>
-        <v>815800</v>
+        <v>815900</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
@@ -4976,7 +4978,7 @@
       </c>
       <c r="B400">
         <f t="shared" si="13"/>
-        <v>819800</v>
+        <v>819900</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -4986,7 +4988,7 @@
       </c>
       <c r="B401">
         <f t="shared" si="13"/>
-        <v>823900</v>
+        <v>824000</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
@@ -4996,7 +4998,7 @@
       </c>
       <c r="B402">
         <f t="shared" si="13"/>
-        <v>828000</v>
+        <v>828100</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -5006,7 +5008,7 @@
       </c>
       <c r="B403">
         <f t="shared" si="13"/>
-        <v>832100</v>
+        <v>832200</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -5016,7 +5018,7 @@
       </c>
       <c r="B404">
         <f t="shared" si="13"/>
-        <v>836200</v>
+        <v>836300</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
@@ -5026,7 +5028,7 @@
       </c>
       <c r="B405">
         <f t="shared" si="13"/>
-        <v>840300</v>
+        <v>840400</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -5036,7 +5038,7 @@
       </c>
       <c r="B406">
         <f t="shared" si="13"/>
-        <v>844400</v>
+        <v>844500</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -5046,7 +5048,7 @@
       </c>
       <c r="B407">
         <f t="shared" si="13"/>
-        <v>848500</v>
+        <v>848600</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
@@ -5056,7 +5058,7 @@
       </c>
       <c r="B408">
         <f t="shared" si="13"/>
-        <v>852600</v>
+        <v>852700</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
@@ -5066,7 +5068,7 @@
       </c>
       <c r="B409">
         <f t="shared" si="13"/>
-        <v>856700</v>
+        <v>856800</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
@@ -5076,7 +5078,7 @@
       </c>
       <c r="B410">
         <f t="shared" si="13"/>
-        <v>860800</v>
+        <v>860900</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
@@ -5086,7 +5088,7 @@
       </c>
       <c r="B411">
         <f t="shared" si="13"/>
-        <v>865000</v>
+        <v>865100</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
@@ -5096,7 +5098,7 @@
       </c>
       <c r="B412">
         <f t="shared" si="13"/>
-        <v>869200</v>
+        <v>869300</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
@@ -5106,7 +5108,7 @@
       </c>
       <c r="B413">
         <f t="shared" si="13"/>
-        <v>873400</v>
+        <v>873500</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -5116,7 +5118,7 @@
       </c>
       <c r="B414">
         <f t="shared" si="13"/>
-        <v>877600</v>
+        <v>877700</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
@@ -5126,7 +5128,7 @@
       </c>
       <c r="B415">
         <f t="shared" si="13"/>
-        <v>881800</v>
+        <v>881900</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -5136,7 +5138,7 @@
       </c>
       <c r="B416">
         <f t="shared" si="13"/>
-        <v>886000</v>
+        <v>886100</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -5146,7 +5148,7 @@
       </c>
       <c r="B417">
         <f t="shared" si="13"/>
-        <v>890200</v>
+        <v>890300</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -5156,7 +5158,7 @@
       </c>
       <c r="B418">
         <f t="shared" si="13"/>
-        <v>894400</v>
+        <v>894500</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -5166,7 +5168,7 @@
       </c>
       <c r="B419">
         <f t="shared" si="13"/>
-        <v>898600</v>
+        <v>898700</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -5176,7 +5178,7 @@
       </c>
       <c r="B420">
         <f t="shared" si="13"/>
-        <v>902800</v>
+        <v>902900</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -5186,7 +5188,7 @@
       </c>
       <c r="B421">
         <f t="shared" si="13"/>
-        <v>907100</v>
+        <v>907200</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -5196,7 +5198,7 @@
       </c>
       <c r="B422">
         <f t="shared" si="13"/>
-        <v>911400</v>
+        <v>911500</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -5206,7 +5208,7 @@
       </c>
       <c r="B423">
         <f t="shared" si="13"/>
-        <v>915700</v>
+        <v>915800</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -5216,7 +5218,7 @@
       </c>
       <c r="B424">
         <f t="shared" si="13"/>
-        <v>920000</v>
+        <v>920100</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -5226,7 +5228,7 @@
       </c>
       <c r="B425">
         <f t="shared" si="13"/>
-        <v>924300</v>
+        <v>924400</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -5236,7 +5238,7 @@
       </c>
       <c r="B426">
         <f t="shared" si="13"/>
-        <v>928600</v>
+        <v>928700</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -5246,7 +5248,7 @@
       </c>
       <c r="B427">
         <f t="shared" si="13"/>
-        <v>932900</v>
+        <v>933000</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -5256,7 +5258,7 @@
       </c>
       <c r="B428">
         <f t="shared" si="13"/>
-        <v>937200</v>
+        <v>937300</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -5266,7 +5268,7 @@
       </c>
       <c r="B429">
         <f t="shared" si="13"/>
-        <v>941500</v>
+        <v>941600</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -5276,7 +5278,7 @@
       </c>
       <c r="B430">
         <f t="shared" si="13"/>
-        <v>945800</v>
+        <v>945900</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -5286,7 +5288,7 @@
       </c>
       <c r="B431">
         <f t="shared" si="13"/>
-        <v>950200</v>
+        <v>950300</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
@@ -5296,7 +5298,7 @@
       </c>
       <c r="B432">
         <f t="shared" si="13"/>
-        <v>954600</v>
+        <v>954700</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
@@ -5306,7 +5308,7 @@
       </c>
       <c r="B433">
         <f t="shared" si="13"/>
-        <v>959000</v>
+        <v>959100</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
@@ -5316,7 +5318,7 @@
       </c>
       <c r="B434">
         <f t="shared" si="13"/>
-        <v>963400</v>
+        <v>963500</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
@@ -5326,7 +5328,7 @@
       </c>
       <c r="B435">
         <f t="shared" si="13"/>
-        <v>967800</v>
+        <v>967900</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
@@ -5336,7 +5338,7 @@
       </c>
       <c r="B436">
         <f t="shared" si="13"/>
-        <v>972200</v>
+        <v>972300</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
@@ -5346,7 +5348,7 @@
       </c>
       <c r="B437">
         <f t="shared" si="13"/>
-        <v>976600</v>
+        <v>976700</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
@@ -5356,7 +5358,7 @@
       </c>
       <c r="B438">
         <f t="shared" si="13"/>
-        <v>981000</v>
+        <v>981100</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
@@ -5366,7 +5368,7 @@
       </c>
       <c r="B439">
         <f t="shared" si="13"/>
-        <v>985400</v>
+        <v>985500</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -5376,7 +5378,7 @@
       </c>
       <c r="B440">
         <f t="shared" si="13"/>
-        <v>989800</v>
+        <v>989900</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
@@ -5386,7 +5388,7 @@
       </c>
       <c r="B441">
         <f t="shared" si="13"/>
-        <v>994300</v>
+        <v>994400</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
@@ -5396,7 +5398,7 @@
       </c>
       <c r="B442">
         <f t="shared" si="13"/>
-        <v>998800</v>
+        <v>998900</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
@@ -5406,7 +5408,7 @@
       </c>
       <c r="B443">
         <f t="shared" si="13"/>
-        <v>1003300</v>
+        <v>1003400</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
@@ -5416,7 +5418,7 @@
       </c>
       <c r="B444">
         <f t="shared" si="13"/>
-        <v>1007800</v>
+        <v>1007900</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
@@ -5426,7 +5428,7 @@
       </c>
       <c r="B445">
         <f t="shared" si="13"/>
-        <v>1012300</v>
+        <v>1012400</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
@@ -5436,7 +5438,7 @@
       </c>
       <c r="B446">
         <f t="shared" si="13"/>
-        <v>1016800</v>
+        <v>1016900</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
@@ -5446,7 +5448,7 @@
       </c>
       <c r="B447">
         <f t="shared" si="13"/>
-        <v>1021300</v>
+        <v>1021400</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
@@ -5456,7 +5458,7 @@
       </c>
       <c r="B448">
         <f t="shared" si="13"/>
-        <v>1025800</v>
+        <v>1025900</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
@@ -5466,7 +5468,7 @@
       </c>
       <c r="B449">
         <f t="shared" si="13"/>
-        <v>1030300</v>
+        <v>1030400</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
@@ -5476,7 +5478,7 @@
       </c>
       <c r="B450">
         <f t="shared" si="13"/>
-        <v>1034800</v>
+        <v>1034900</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
@@ -5486,7 +5488,7 @@
       </c>
       <c r="B451">
         <f t="shared" si="13"/>
-        <v>1039400</v>
+        <v>1039500</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
@@ -5496,7 +5498,7 @@
       </c>
       <c r="B452">
         <f t="shared" ref="B452:B515" si="15">B451+VLOOKUP(INT(A452/10), $F$2:$G$102, 2, FALSE)</f>
-        <v>1044000</v>
+        <v>1044100</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
@@ -5506,7 +5508,7 @@
       </c>
       <c r="B453">
         <f t="shared" si="15"/>
-        <v>1048600</v>
+        <v>1048700</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
@@ -5516,7 +5518,7 @@
       </c>
       <c r="B454">
         <f t="shared" si="15"/>
-        <v>1053200</v>
+        <v>1053300</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
@@ -5526,7 +5528,7 @@
       </c>
       <c r="B455">
         <f t="shared" si="15"/>
-        <v>1057800</v>
+        <v>1057900</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
@@ -5536,7 +5538,7 @@
       </c>
       <c r="B456">
         <f t="shared" si="15"/>
-        <v>1062400</v>
+        <v>1062500</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
@@ -5546,7 +5548,7 @@
       </c>
       <c r="B457">
         <f t="shared" si="15"/>
-        <v>1067000</v>
+        <v>1067100</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
@@ -5556,7 +5558,7 @@
       </c>
       <c r="B458">
         <f t="shared" si="15"/>
-        <v>1071600</v>
+        <v>1071700</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
@@ -5566,7 +5568,7 @@
       </c>
       <c r="B459">
         <f t="shared" si="15"/>
-        <v>1076200</v>
+        <v>1076300</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
@@ -5576,7 +5578,7 @@
       </c>
       <c r="B460">
         <f t="shared" si="15"/>
-        <v>1080800</v>
+        <v>1080900</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
@@ -5586,7 +5588,7 @@
       </c>
       <c r="B461">
         <f t="shared" si="15"/>
-        <v>1085500</v>
+        <v>1085600</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
@@ -5596,7 +5598,7 @@
       </c>
       <c r="B462">
         <f t="shared" si="15"/>
-        <v>1090200</v>
+        <v>1090300</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
@@ -5606,7 +5608,7 @@
       </c>
       <c r="B463">
         <f t="shared" si="15"/>
-        <v>1094900</v>
+        <v>1095000</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
@@ -5616,7 +5618,7 @@
       </c>
       <c r="B464">
         <f t="shared" si="15"/>
-        <v>1099600</v>
+        <v>1099700</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
@@ -5626,7 +5628,7 @@
       </c>
       <c r="B465">
         <f t="shared" si="15"/>
-        <v>1104300</v>
+        <v>1104400</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
@@ -5636,7 +5638,7 @@
       </c>
       <c r="B466">
         <f t="shared" si="15"/>
-        <v>1109000</v>
+        <v>1109100</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
@@ -5646,7 +5648,7 @@
       </c>
       <c r="B467">
         <f t="shared" si="15"/>
-        <v>1113700</v>
+        <v>1113800</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
@@ -5656,7 +5658,7 @@
       </c>
       <c r="B468">
         <f t="shared" si="15"/>
-        <v>1118400</v>
+        <v>1118500</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
@@ -5666,7 +5668,7 @@
       </c>
       <c r="B469">
         <f t="shared" si="15"/>
-        <v>1123100</v>
+        <v>1123200</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
@@ -5676,7 +5678,7 @@
       </c>
       <c r="B470">
         <f t="shared" si="15"/>
-        <v>1127800</v>
+        <v>1127900</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
@@ -5686,7 +5688,7 @@
       </c>
       <c r="B471">
         <f t="shared" si="15"/>
-        <v>1132600</v>
+        <v>1132700</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
@@ -5696,7 +5698,7 @@
       </c>
       <c r="B472">
         <f t="shared" si="15"/>
-        <v>1137400</v>
+        <v>1137500</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
@@ -5706,7 +5708,7 @@
       </c>
       <c r="B473">
         <f t="shared" si="15"/>
-        <v>1142200</v>
+        <v>1142300</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
@@ -5716,7 +5718,7 @@
       </c>
       <c r="B474">
         <f t="shared" si="15"/>
-        <v>1147000</v>
+        <v>1147100</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
@@ -5726,7 +5728,7 @@
       </c>
       <c r="B475">
         <f t="shared" si="15"/>
-        <v>1151800</v>
+        <v>1151900</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
@@ -5736,7 +5738,7 @@
       </c>
       <c r="B476">
         <f t="shared" si="15"/>
-        <v>1156600</v>
+        <v>1156700</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -5746,7 +5748,7 @@
       </c>
       <c r="B477">
         <f t="shared" si="15"/>
-        <v>1161400</v>
+        <v>1161500</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -5756,7 +5758,7 @@
       </c>
       <c r="B478">
         <f t="shared" si="15"/>
-        <v>1166200</v>
+        <v>1166300</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
@@ -5766,7 +5768,7 @@
       </c>
       <c r="B479">
         <f t="shared" si="15"/>
-        <v>1171000</v>
+        <v>1171100</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -5776,7 +5778,7 @@
       </c>
       <c r="B480">
         <f t="shared" si="15"/>
-        <v>1175800</v>
+        <v>1175900</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
@@ -5786,7 +5788,7 @@
       </c>
       <c r="B481">
         <f t="shared" si="15"/>
-        <v>1180700</v>
+        <v>1180800</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
@@ -5796,7 +5798,7 @@
       </c>
       <c r="B482">
         <f t="shared" si="15"/>
-        <v>1185600</v>
+        <v>1185700</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
@@ -5806,7 +5808,7 @@
       </c>
       <c r="B483">
         <f t="shared" si="15"/>
-        <v>1190500</v>
+        <v>1190600</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
@@ -5816,7 +5818,7 @@
       </c>
       <c r="B484">
         <f t="shared" si="15"/>
-        <v>1195400</v>
+        <v>1195500</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
@@ -5826,7 +5828,7 @@
       </c>
       <c r="B485">
         <f t="shared" si="15"/>
-        <v>1200300</v>
+        <v>1200400</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
@@ -5836,7 +5838,7 @@
       </c>
       <c r="B486">
         <f t="shared" si="15"/>
-        <v>1205200</v>
+        <v>1205300</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
@@ -5846,7 +5848,7 @@
       </c>
       <c r="B487">
         <f t="shared" si="15"/>
-        <v>1210100</v>
+        <v>1210200</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
@@ -5856,7 +5858,7 @@
       </c>
       <c r="B488">
         <f t="shared" si="15"/>
-        <v>1215000</v>
+        <v>1215100</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
@@ -5866,7 +5868,7 @@
       </c>
       <c r="B489">
         <f t="shared" si="15"/>
-        <v>1219900</v>
+        <v>1220000</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
@@ -5876,7 +5878,7 @@
       </c>
       <c r="B490">
         <f t="shared" si="15"/>
-        <v>1224800</v>
+        <v>1224900</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
@@ -5886,7 +5888,7 @@
       </c>
       <c r="B491">
         <f t="shared" si="15"/>
-        <v>1229800</v>
+        <v>1229900</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
@@ -5896,7 +5898,7 @@
       </c>
       <c r="B492">
         <f t="shared" si="15"/>
-        <v>1234800</v>
+        <v>1234900</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
@@ -5906,7 +5908,7 @@
       </c>
       <c r="B493">
         <f t="shared" si="15"/>
-        <v>1239800</v>
+        <v>1239900</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
@@ -5916,7 +5918,7 @@
       </c>
       <c r="B494">
         <f t="shared" si="15"/>
-        <v>1244800</v>
+        <v>1244900</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
@@ -5926,7 +5928,7 @@
       </c>
       <c r="B495">
         <f t="shared" si="15"/>
-        <v>1249800</v>
+        <v>1249900</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
@@ -5936,7 +5938,7 @@
       </c>
       <c r="B496">
         <f t="shared" si="15"/>
-        <v>1254800</v>
+        <v>1254900</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
@@ -5946,7 +5948,7 @@
       </c>
       <c r="B497">
         <f t="shared" si="15"/>
-        <v>1259800</v>
+        <v>1259900</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
@@ -5956,7 +5958,7 @@
       </c>
       <c r="B498">
         <f t="shared" si="15"/>
-        <v>1264800</v>
+        <v>1264900</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
@@ -5966,7 +5968,7 @@
       </c>
       <c r="B499">
         <f t="shared" si="15"/>
-        <v>1269800</v>
+        <v>1269900</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
@@ -5976,7 +5978,7 @@
       </c>
       <c r="B500">
         <f t="shared" si="15"/>
-        <v>1274800</v>
+        <v>1274900</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
@@ -5986,7 +5988,7 @@
       </c>
       <c r="B501">
         <f t="shared" si="15"/>
-        <v>1279900</v>
+        <v>1280000</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
@@ -5996,7 +5998,7 @@
       </c>
       <c r="B502">
         <f t="shared" si="15"/>
-        <v>1285000</v>
+        <v>1285100</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
@@ -6006,7 +6008,7 @@
       </c>
       <c r="B503">
         <f t="shared" si="15"/>
-        <v>1290100</v>
+        <v>1290200</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
@@ -6016,7 +6018,7 @@
       </c>
       <c r="B504">
         <f t="shared" si="15"/>
-        <v>1295200</v>
+        <v>1295300</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
@@ -6026,7 +6028,7 @@
       </c>
       <c r="B505">
         <f t="shared" si="15"/>
-        <v>1300300</v>
+        <v>1300400</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
@@ -6036,7 +6038,7 @@
       </c>
       <c r="B506">
         <f t="shared" si="15"/>
-        <v>1305400</v>
+        <v>1305500</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
@@ -6046,7 +6048,7 @@
       </c>
       <c r="B507">
         <f t="shared" si="15"/>
-        <v>1310500</v>
+        <v>1310600</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
@@ -6056,7 +6058,7 @@
       </c>
       <c r="B508">
         <f t="shared" si="15"/>
-        <v>1315600</v>
+        <v>1315700</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
@@ -6066,7 +6068,7 @@
       </c>
       <c r="B509">
         <f t="shared" si="15"/>
-        <v>1320700</v>
+        <v>1320800</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
@@ -6076,7 +6078,7 @@
       </c>
       <c r="B510">
         <f t="shared" si="15"/>
-        <v>1325800</v>
+        <v>1325900</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
@@ -6086,7 +6088,7 @@
       </c>
       <c r="B511">
         <f t="shared" si="15"/>
-        <v>1331000</v>
+        <v>1331100</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
@@ -6096,7 +6098,7 @@
       </c>
       <c r="B512">
         <f t="shared" si="15"/>
-        <v>1336200</v>
+        <v>1336300</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
@@ -6106,7 +6108,7 @@
       </c>
       <c r="B513">
         <f t="shared" si="15"/>
-        <v>1341400</v>
+        <v>1341500</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
@@ -6116,7 +6118,7 @@
       </c>
       <c r="B514">
         <f t="shared" si="15"/>
-        <v>1346600</v>
+        <v>1346700</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
@@ -6126,7 +6128,7 @@
       </c>
       <c r="B515">
         <f t="shared" si="15"/>
-        <v>1351800</v>
+        <v>1351900</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
@@ -6136,7 +6138,7 @@
       </c>
       <c r="B516">
         <f t="shared" ref="B516:B579" si="17">B515+VLOOKUP(INT(A516/10), $F$2:$G$102, 2, FALSE)</f>
-        <v>1357000</v>
+        <v>1357100</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
@@ -6146,7 +6148,7 @@
       </c>
       <c r="B517">
         <f t="shared" si="17"/>
-        <v>1362200</v>
+        <v>1362300</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
@@ -6156,7 +6158,7 @@
       </c>
       <c r="B518">
         <f t="shared" si="17"/>
-        <v>1367400</v>
+        <v>1367500</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
@@ -6166,7 +6168,7 @@
       </c>
       <c r="B519">
         <f t="shared" si="17"/>
-        <v>1372600</v>
+        <v>1372700</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
@@ -6176,7 +6178,7 @@
       </c>
       <c r="B520">
         <f t="shared" si="17"/>
-        <v>1377800</v>
+        <v>1377900</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
@@ -6186,7 +6188,7 @@
       </c>
       <c r="B521">
         <f t="shared" si="17"/>
-        <v>1383100</v>
+        <v>1383200</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
@@ -6196,7 +6198,7 @@
       </c>
       <c r="B522">
         <f t="shared" si="17"/>
-        <v>1388400</v>
+        <v>1388500</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
@@ -6206,7 +6208,7 @@
       </c>
       <c r="B523">
         <f t="shared" si="17"/>
-        <v>1393700</v>
+        <v>1393800</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
@@ -6216,7 +6218,7 @@
       </c>
       <c r="B524">
         <f t="shared" si="17"/>
-        <v>1399000</v>
+        <v>1399100</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
@@ -6226,7 +6228,7 @@
       </c>
       <c r="B525">
         <f t="shared" si="17"/>
-        <v>1404300</v>
+        <v>1404400</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
@@ -6236,7 +6238,7 @@
       </c>
       <c r="B526">
         <f t="shared" si="17"/>
-        <v>1409600</v>
+        <v>1409700</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
@@ -6246,7 +6248,7 @@
       </c>
       <c r="B527">
         <f t="shared" si="17"/>
-        <v>1414900</v>
+        <v>1415000</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
@@ -6256,7 +6258,7 @@
       </c>
       <c r="B528">
         <f t="shared" si="17"/>
-        <v>1420200</v>
+        <v>1420300</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
@@ -6266,7 +6268,7 @@
       </c>
       <c r="B529">
         <f t="shared" si="17"/>
-        <v>1425500</v>
+        <v>1425600</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
@@ -6276,7 +6278,7 @@
       </c>
       <c r="B530">
         <f t="shared" si="17"/>
-        <v>1430800</v>
+        <v>1430900</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
@@ -6286,7 +6288,7 @@
       </c>
       <c r="B531">
         <f t="shared" si="17"/>
-        <v>1436200</v>
+        <v>1436300</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
@@ -6296,7 +6298,7 @@
       </c>
       <c r="B532">
         <f t="shared" si="17"/>
-        <v>1441600</v>
+        <v>1441700</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
@@ -6306,7 +6308,7 @@
       </c>
       <c r="B533">
         <f t="shared" si="17"/>
-        <v>1447000</v>
+        <v>1447100</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
@@ -6316,7 +6318,7 @@
       </c>
       <c r="B534">
         <f t="shared" si="17"/>
-        <v>1452400</v>
+        <v>1452500</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
@@ -6326,7 +6328,7 @@
       </c>
       <c r="B535">
         <f t="shared" si="17"/>
-        <v>1457800</v>
+        <v>1457900</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
@@ -6336,7 +6338,7 @@
       </c>
       <c r="B536">
         <f t="shared" si="17"/>
-        <v>1463200</v>
+        <v>1463300</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
@@ -6346,7 +6348,7 @@
       </c>
       <c r="B537">
         <f t="shared" si="17"/>
-        <v>1468600</v>
+        <v>1468700</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
@@ -6356,7 +6358,7 @@
       </c>
       <c r="B538">
         <f t="shared" si="17"/>
-        <v>1474000</v>
+        <v>1474100</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
@@ -6366,7 +6368,7 @@
       </c>
       <c r="B539">
         <f t="shared" si="17"/>
-        <v>1479400</v>
+        <v>1479500</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
@@ -6376,7 +6378,7 @@
       </c>
       <c r="B540">
         <f t="shared" si="17"/>
-        <v>1484800</v>
+        <v>1484900</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
@@ -6386,7 +6388,7 @@
       </c>
       <c r="B541">
         <f t="shared" si="17"/>
-        <v>1490300</v>
+        <v>1490400</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
@@ -6396,7 +6398,7 @@
       </c>
       <c r="B542">
         <f t="shared" si="17"/>
-        <v>1495800</v>
+        <v>1495900</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
@@ -6406,7 +6408,7 @@
       </c>
       <c r="B543">
         <f t="shared" si="17"/>
-        <v>1501300</v>
+        <v>1501400</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
@@ -6416,7 +6418,7 @@
       </c>
       <c r="B544">
         <f t="shared" si="17"/>
-        <v>1506800</v>
+        <v>1506900</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
@@ -6426,7 +6428,7 @@
       </c>
       <c r="B545">
         <f t="shared" si="17"/>
-        <v>1512300</v>
+        <v>1512400</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
@@ -6436,7 +6438,7 @@
       </c>
       <c r="B546">
         <f t="shared" si="17"/>
-        <v>1517800</v>
+        <v>1517900</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
@@ -6446,7 +6448,7 @@
       </c>
       <c r="B547">
         <f t="shared" si="17"/>
-        <v>1523300</v>
+        <v>1523400</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
@@ -6456,7 +6458,7 @@
       </c>
       <c r="B548">
         <f t="shared" si="17"/>
-        <v>1528800</v>
+        <v>1528900</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
@@ -6466,7 +6468,7 @@
       </c>
       <c r="B549">
         <f t="shared" si="17"/>
-        <v>1534300</v>
+        <v>1534400</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
@@ -6476,7 +6478,7 @@
       </c>
       <c r="B550">
         <f t="shared" si="17"/>
-        <v>1539800</v>
+        <v>1539900</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
@@ -6486,7 +6488,7 @@
       </c>
       <c r="B551">
         <f t="shared" si="17"/>
-        <v>1545400</v>
+        <v>1545500</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
@@ -6496,7 +6498,7 @@
       </c>
       <c r="B552">
         <f t="shared" si="17"/>
-        <v>1551000</v>
+        <v>1551100</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
@@ -6506,7 +6508,7 @@
       </c>
       <c r="B553">
         <f t="shared" si="17"/>
-        <v>1556600</v>
+        <v>1556700</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
@@ -6516,7 +6518,7 @@
       </c>
       <c r="B554">
         <f t="shared" si="17"/>
-        <v>1562200</v>
+        <v>1562300</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
@@ -6526,7 +6528,7 @@
       </c>
       <c r="B555">
         <f t="shared" si="17"/>
-        <v>1567800</v>
+        <v>1567900</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
@@ -6536,7 +6538,7 @@
       </c>
       <c r="B556">
         <f t="shared" si="17"/>
-        <v>1573400</v>
+        <v>1573500</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
@@ -6546,7 +6548,7 @@
       </c>
       <c r="B557">
         <f t="shared" si="17"/>
-        <v>1579000</v>
+        <v>1579100</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
@@ -6556,7 +6558,7 @@
       </c>
       <c r="B558">
         <f t="shared" si="17"/>
-        <v>1584600</v>
+        <v>1584700</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
@@ -6566,7 +6568,7 @@
       </c>
       <c r="B559">
         <f t="shared" si="17"/>
-        <v>1590200</v>
+        <v>1590300</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
@@ -6576,7 +6578,7 @@
       </c>
       <c r="B560">
         <f t="shared" si="17"/>
-        <v>1595800</v>
+        <v>1595900</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
@@ -6586,7 +6588,7 @@
       </c>
       <c r="B561">
         <f t="shared" si="17"/>
-        <v>1601500</v>
+        <v>1601600</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
@@ -6596,7 +6598,7 @@
       </c>
       <c r="B562">
         <f t="shared" si="17"/>
-        <v>1607200</v>
+        <v>1607300</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
@@ -6606,7 +6608,7 @@
       </c>
       <c r="B563">
         <f t="shared" si="17"/>
-        <v>1612900</v>
+        <v>1613000</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
@@ -6616,7 +6618,7 @@
       </c>
       <c r="B564">
         <f t="shared" si="17"/>
-        <v>1618600</v>
+        <v>1618700</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
@@ -6626,7 +6628,7 @@
       </c>
       <c r="B565">
         <f t="shared" si="17"/>
-        <v>1624300</v>
+        <v>1624400</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
@@ -6636,7 +6638,7 @@
       </c>
       <c r="B566">
         <f t="shared" si="17"/>
-        <v>1630000</v>
+        <v>1630100</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
@@ -6646,7 +6648,7 @@
       </c>
       <c r="B567">
         <f t="shared" si="17"/>
-        <v>1635700</v>
+        <v>1635800</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
@@ -6656,7 +6658,7 @@
       </c>
       <c r="B568">
         <f t="shared" si="17"/>
-        <v>1641400</v>
+        <v>1641500</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
@@ -6666,7 +6668,7 @@
       </c>
       <c r="B569">
         <f t="shared" si="17"/>
-        <v>1647100</v>
+        <v>1647200</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
@@ -6676,7 +6678,7 @@
       </c>
       <c r="B570">
         <f t="shared" si="17"/>
-        <v>1652800</v>
+        <v>1652900</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
@@ -6686,7 +6688,7 @@
       </c>
       <c r="B571">
         <f t="shared" si="17"/>
-        <v>1658600</v>
+        <v>1658700</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
@@ -6696,7 +6698,7 @@
       </c>
       <c r="B572">
         <f t="shared" si="17"/>
-        <v>1664400</v>
+        <v>1664500</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
@@ -6706,7 +6708,7 @@
       </c>
       <c r="B573">
         <f t="shared" si="17"/>
-        <v>1670200</v>
+        <v>1670300</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
@@ -6716,7 +6718,7 @@
       </c>
       <c r="B574">
         <f t="shared" si="17"/>
-        <v>1676000</v>
+        <v>1676100</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
@@ -6726,7 +6728,7 @@
       </c>
       <c r="B575">
         <f t="shared" si="17"/>
-        <v>1681800</v>
+        <v>1681900</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
@@ -6736,7 +6738,7 @@
       </c>
       <c r="B576">
         <f t="shared" si="17"/>
-        <v>1687600</v>
+        <v>1687700</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
@@ -6746,7 +6748,7 @@
       </c>
       <c r="B577">
         <f t="shared" si="17"/>
-        <v>1693400</v>
+        <v>1693500</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
@@ -6756,7 +6758,7 @@
       </c>
       <c r="B578">
         <f t="shared" si="17"/>
-        <v>1699200</v>
+        <v>1699300</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
@@ -6766,7 +6768,7 @@
       </c>
       <c r="B579">
         <f t="shared" si="17"/>
-        <v>1705000</v>
+        <v>1705100</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
@@ -6776,7 +6778,7 @@
       </c>
       <c r="B580">
         <f t="shared" ref="B580:B643" si="19">B579+VLOOKUP(INT(A580/10), $F$2:$G$102, 2, FALSE)</f>
-        <v>1710800</v>
+        <v>1710900</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
@@ -6786,7 +6788,7 @@
       </c>
       <c r="B581">
         <f t="shared" si="19"/>
-        <v>1716700</v>
+        <v>1716800</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
@@ -6796,7 +6798,7 @@
       </c>
       <c r="B582">
         <f t="shared" si="19"/>
-        <v>1722600</v>
+        <v>1722700</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
@@ -6806,7 +6808,7 @@
       </c>
       <c r="B583">
         <f t="shared" si="19"/>
-        <v>1728500</v>
+        <v>1728600</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
@@ -6816,7 +6818,7 @@
       </c>
       <c r="B584">
         <f t="shared" si="19"/>
-        <v>1734400</v>
+        <v>1734500</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
@@ -6826,7 +6828,7 @@
       </c>
       <c r="B585">
         <f t="shared" si="19"/>
-        <v>1740300</v>
+        <v>1740400</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
@@ -6836,7 +6838,7 @@
       </c>
       <c r="B586">
         <f t="shared" si="19"/>
-        <v>1746200</v>
+        <v>1746300</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
@@ -6846,7 +6848,7 @@
       </c>
       <c r="B587">
         <f t="shared" si="19"/>
-        <v>1752100</v>
+        <v>1752200</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
@@ -6856,7 +6858,7 @@
       </c>
       <c r="B588">
         <f t="shared" si="19"/>
-        <v>1758000</v>
+        <v>1758100</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
@@ -6866,7 +6868,7 @@
       </c>
       <c r="B589">
         <f t="shared" si="19"/>
-        <v>1763900</v>
+        <v>1764000</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
@@ -6876,7 +6878,7 @@
       </c>
       <c r="B590">
         <f t="shared" si="19"/>
-        <v>1769800</v>
+        <v>1769900</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
@@ -6886,7 +6888,7 @@
       </c>
       <c r="B591">
         <f t="shared" si="19"/>
-        <v>1775800</v>
+        <v>1775900</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
@@ -6896,7 +6898,7 @@
       </c>
       <c r="B592">
         <f t="shared" si="19"/>
-        <v>1781800</v>
+        <v>1781900</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
@@ -6906,7 +6908,7 @@
       </c>
       <c r="B593">
         <f t="shared" si="19"/>
-        <v>1787800</v>
+        <v>1787900</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
@@ -6916,7 +6918,7 @@
       </c>
       <c r="B594">
         <f t="shared" si="19"/>
-        <v>1793800</v>
+        <v>1793900</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
@@ -6926,7 +6928,7 @@
       </c>
       <c r="B595">
         <f t="shared" si="19"/>
-        <v>1799800</v>
+        <v>1799900</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
@@ -6936,7 +6938,7 @@
       </c>
       <c r="B596">
         <f t="shared" si="19"/>
-        <v>1805800</v>
+        <v>1805900</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
@@ -6946,7 +6948,7 @@
       </c>
       <c r="B597">
         <f t="shared" si="19"/>
-        <v>1811800</v>
+        <v>1811900</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
@@ -6956,7 +6958,7 @@
       </c>
       <c r="B598">
         <f t="shared" si="19"/>
-        <v>1817800</v>
+        <v>1817900</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
@@ -6966,7 +6968,7 @@
       </c>
       <c r="B599">
         <f t="shared" si="19"/>
-        <v>1823800</v>
+        <v>1823900</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
@@ -6976,7 +6978,7 @@
       </c>
       <c r="B600">
         <f t="shared" si="19"/>
-        <v>1829800</v>
+        <v>1829900</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
@@ -6986,7 +6988,7 @@
       </c>
       <c r="B601">
         <f t="shared" si="19"/>
-        <v>1835900</v>
+        <v>1836000</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
@@ -6996,7 +6998,7 @@
       </c>
       <c r="B602">
         <f t="shared" si="19"/>
-        <v>1842000</v>
+        <v>1842100</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
@@ -7006,7 +7008,7 @@
       </c>
       <c r="B603">
         <f t="shared" si="19"/>
-        <v>1848100</v>
+        <v>1848200</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
@@ -7016,7 +7018,7 @@
       </c>
       <c r="B604">
         <f t="shared" si="19"/>
-        <v>1854200</v>
+        <v>1854300</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
@@ -7026,7 +7028,7 @@
       </c>
       <c r="B605">
         <f t="shared" si="19"/>
-        <v>1860300</v>
+        <v>1860400</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
@@ -7036,7 +7038,7 @@
       </c>
       <c r="B606">
         <f t="shared" si="19"/>
-        <v>1866400</v>
+        <v>1866500</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
@@ -7046,7 +7048,7 @@
       </c>
       <c r="B607">
         <f t="shared" si="19"/>
-        <v>1872500</v>
+        <v>1872600</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
@@ -7056,7 +7058,7 @@
       </c>
       <c r="B608">
         <f t="shared" si="19"/>
-        <v>1878600</v>
+        <v>1878700</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
@@ -7066,7 +7068,7 @@
       </c>
       <c r="B609">
         <f t="shared" si="19"/>
-        <v>1884700</v>
+        <v>1884800</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
@@ -7076,7 +7078,7 @@
       </c>
       <c r="B610">
         <f t="shared" si="19"/>
-        <v>1890800</v>
+        <v>1890900</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
@@ -7086,7 +7088,7 @@
       </c>
       <c r="B611">
         <f t="shared" si="19"/>
-        <v>1897000</v>
+        <v>1897100</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
@@ -7096,7 +7098,7 @@
       </c>
       <c r="B612">
         <f t="shared" si="19"/>
-        <v>1903200</v>
+        <v>1903300</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
@@ -7106,7 +7108,7 @@
       </c>
       <c r="B613">
         <f t="shared" si="19"/>
-        <v>1909400</v>
+        <v>1909500</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
@@ -7116,7 +7118,7 @@
       </c>
       <c r="B614">
         <f t="shared" si="19"/>
-        <v>1915600</v>
+        <v>1915700</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
@@ -7126,7 +7128,7 @@
       </c>
       <c r="B615">
         <f t="shared" si="19"/>
-        <v>1921800</v>
+        <v>1921900</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
@@ -7136,7 +7138,7 @@
       </c>
       <c r="B616">
         <f t="shared" si="19"/>
-        <v>1928000</v>
+        <v>1928100</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
@@ -7146,7 +7148,7 @@
       </c>
       <c r="B617">
         <f t="shared" si="19"/>
-        <v>1934200</v>
+        <v>1934300</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
@@ -7156,7 +7158,7 @@
       </c>
       <c r="B618">
         <f t="shared" si="19"/>
-        <v>1940400</v>
+        <v>1940500</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
@@ -7166,7 +7168,7 @@
       </c>
       <c r="B619">
         <f t="shared" si="19"/>
-        <v>1946600</v>
+        <v>1946700</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
@@ -7176,7 +7178,7 @@
       </c>
       <c r="B620">
         <f t="shared" si="19"/>
-        <v>1952800</v>
+        <v>1952900</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
@@ -7186,7 +7188,7 @@
       </c>
       <c r="B621">
         <f t="shared" si="19"/>
-        <v>1959100</v>
+        <v>1959200</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
@@ -7196,7 +7198,7 @@
       </c>
       <c r="B622">
         <f t="shared" si="19"/>
-        <v>1965400</v>
+        <v>1965500</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
@@ -7206,7 +7208,7 @@
       </c>
       <c r="B623">
         <f t="shared" si="19"/>
-        <v>1971700</v>
+        <v>1971800</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
@@ -7216,7 +7218,7 @@
       </c>
       <c r="B624">
         <f t="shared" si="19"/>
-        <v>1978000</v>
+        <v>1978100</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
@@ -7226,7 +7228,7 @@
       </c>
       <c r="B625">
         <f t="shared" si="19"/>
-        <v>1984300</v>
+        <v>1984400</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
@@ -7236,7 +7238,7 @@
       </c>
       <c r="B626">
         <f t="shared" si="19"/>
-        <v>1990600</v>
+        <v>1990700</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
@@ -7246,7 +7248,7 @@
       </c>
       <c r="B627">
         <f t="shared" si="19"/>
-        <v>1996900</v>
+        <v>1997000</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
@@ -7256,7 +7258,7 @@
       </c>
       <c r="B628">
         <f t="shared" si="19"/>
-        <v>2003200</v>
+        <v>2003300</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
@@ -7266,7 +7268,7 @@
       </c>
       <c r="B629">
         <f t="shared" si="19"/>
-        <v>2009500</v>
+        <v>2009600</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
@@ -7276,7 +7278,7 @@
       </c>
       <c r="B630">
         <f t="shared" si="19"/>
-        <v>2015800</v>
+        <v>2015900</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
@@ -7286,7 +7288,7 @@
       </c>
       <c r="B631">
         <f t="shared" si="19"/>
-        <v>2022200</v>
+        <v>2022300</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
@@ -7296,7 +7298,7 @@
       </c>
       <c r="B632">
         <f t="shared" si="19"/>
-        <v>2028600</v>
+        <v>2028700</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
@@ -7306,7 +7308,7 @@
       </c>
       <c r="B633">
         <f t="shared" si="19"/>
-        <v>2035000</v>
+        <v>2035100</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
@@ -7316,7 +7318,7 @@
       </c>
       <c r="B634">
         <f t="shared" si="19"/>
-        <v>2041400</v>
+        <v>2041500</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
@@ -7326,7 +7328,7 @@
       </c>
       <c r="B635">
         <f t="shared" si="19"/>
-        <v>2047800</v>
+        <v>2047900</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
@@ -7336,7 +7338,7 @@
       </c>
       <c r="B636">
         <f t="shared" si="19"/>
-        <v>2054200</v>
+        <v>2054300</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
@@ -7346,7 +7348,7 @@
       </c>
       <c r="B637">
         <f t="shared" si="19"/>
-        <v>2060600</v>
+        <v>2060700</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
@@ -7356,7 +7358,7 @@
       </c>
       <c r="B638">
         <f t="shared" si="19"/>
-        <v>2067000</v>
+        <v>2067100</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
@@ -7366,7 +7368,7 @@
       </c>
       <c r="B639">
         <f t="shared" si="19"/>
-        <v>2073400</v>
+        <v>2073500</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
@@ -7376,7 +7378,7 @@
       </c>
       <c r="B640">
         <f t="shared" si="19"/>
-        <v>2079800</v>
+        <v>2079900</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
@@ -7386,7 +7388,7 @@
       </c>
       <c r="B641">
         <f t="shared" si="19"/>
-        <v>2086300</v>
+        <v>2086400</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
@@ -7396,7 +7398,7 @@
       </c>
       <c r="B642">
         <f t="shared" si="19"/>
-        <v>2092800</v>
+        <v>2092900</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
@@ -7406,7 +7408,7 @@
       </c>
       <c r="B643">
         <f t="shared" si="19"/>
-        <v>2099300</v>
+        <v>2099400</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
@@ -7416,7 +7418,7 @@
       </c>
       <c r="B644">
         <f t="shared" ref="B644:B707" si="21">B643+VLOOKUP(INT(A644/10), $F$2:$G$102, 2, FALSE)</f>
-        <v>2105800</v>
+        <v>2105900</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
@@ -7426,7 +7428,7 @@
       </c>
       <c r="B645">
         <f t="shared" si="21"/>
-        <v>2112300</v>
+        <v>2112400</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
@@ -7436,7 +7438,7 @@
       </c>
       <c r="B646">
         <f t="shared" si="21"/>
-        <v>2118800</v>
+        <v>2118900</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
@@ -7446,7 +7448,7 @@
       </c>
       <c r="B647">
         <f t="shared" si="21"/>
-        <v>2125300</v>
+        <v>2125400</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
@@ -7456,7 +7458,7 @@
       </c>
       <c r="B648">
         <f t="shared" si="21"/>
-        <v>2131800</v>
+        <v>2131900</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
@@ -7466,7 +7468,7 @@
       </c>
       <c r="B649">
         <f t="shared" si="21"/>
-        <v>2138300</v>
+        <v>2138400</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
@@ -7476,7 +7478,7 @@
       </c>
       <c r="B650">
         <f t="shared" si="21"/>
-        <v>2144800</v>
+        <v>2144900</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
@@ -7486,7 +7488,7 @@
       </c>
       <c r="B651">
         <f t="shared" si="21"/>
-        <v>2151400</v>
+        <v>2151500</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
@@ -7496,7 +7498,7 @@
       </c>
       <c r="B652">
         <f t="shared" si="21"/>
-        <v>2158000</v>
+        <v>2158100</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
@@ -7506,7 +7508,7 @@
       </c>
       <c r="B653">
         <f t="shared" si="21"/>
-        <v>2164600</v>
+        <v>2164700</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
@@ -7516,7 +7518,7 @@
       </c>
       <c r="B654">
         <f t="shared" si="21"/>
-        <v>2171200</v>
+        <v>2171300</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.3">
@@ -7526,7 +7528,7 @@
       </c>
       <c r="B655">
         <f t="shared" si="21"/>
-        <v>2177800</v>
+        <v>2177900</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
@@ -7536,7 +7538,7 @@
       </c>
       <c r="B656">
         <f t="shared" si="21"/>
-        <v>2184400</v>
+        <v>2184500</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
@@ -7546,7 +7548,7 @@
       </c>
       <c r="B657">
         <f t="shared" si="21"/>
-        <v>2191000</v>
+        <v>2191100</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
@@ -7556,7 +7558,7 @@
       </c>
       <c r="B658">
         <f t="shared" si="21"/>
-        <v>2197600</v>
+        <v>2197700</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
@@ -7566,7 +7568,7 @@
       </c>
       <c r="B659">
         <f t="shared" si="21"/>
-        <v>2204200</v>
+        <v>2204300</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
@@ -7576,7 +7578,7 @@
       </c>
       <c r="B660">
         <f t="shared" si="21"/>
-        <v>2210800</v>
+        <v>2210900</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
@@ -7586,7 +7588,7 @@
       </c>
       <c r="B661">
         <f t="shared" si="21"/>
-        <v>2217500</v>
+        <v>2217600</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
@@ -7596,7 +7598,7 @@
       </c>
       <c r="B662">
         <f t="shared" si="21"/>
-        <v>2224200</v>
+        <v>2224300</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
@@ -7606,7 +7608,7 @@
       </c>
       <c r="B663">
         <f t="shared" si="21"/>
-        <v>2230900</v>
+        <v>2231000</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
@@ -7616,7 +7618,7 @@
       </c>
       <c r="B664">
         <f t="shared" si="21"/>
-        <v>2237600</v>
+        <v>2237700</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.3">
@@ -7626,7 +7628,7 @@
       </c>
       <c r="B665">
         <f t="shared" si="21"/>
-        <v>2244300</v>
+        <v>2244400</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
@@ -7636,7 +7638,7 @@
       </c>
       <c r="B666">
         <f t="shared" si="21"/>
-        <v>2251000</v>
+        <v>2251100</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
@@ -7646,7 +7648,7 @@
       </c>
       <c r="B667">
         <f t="shared" si="21"/>
-        <v>2257700</v>
+        <v>2257800</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
@@ -7656,7 +7658,7 @@
       </c>
       <c r="B668">
         <f t="shared" si="21"/>
-        <v>2264400</v>
+        <v>2264500</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
@@ -7666,7 +7668,7 @@
       </c>
       <c r="B669">
         <f t="shared" si="21"/>
-        <v>2271100</v>
+        <v>2271200</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
@@ -7676,7 +7678,7 @@
       </c>
       <c r="B670">
         <f t="shared" si="21"/>
-        <v>2277800</v>
+        <v>2277900</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
@@ -7686,7 +7688,7 @@
       </c>
       <c r="B671">
         <f t="shared" si="21"/>
-        <v>2284600</v>
+        <v>2284700</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
@@ -7696,7 +7698,7 @@
       </c>
       <c r="B672">
         <f t="shared" si="21"/>
-        <v>2291400</v>
+        <v>2291500</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
@@ -7706,7 +7708,7 @@
       </c>
       <c r="B673">
         <f t="shared" si="21"/>
-        <v>2298200</v>
+        <v>2298300</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
@@ -7716,7 +7718,7 @@
       </c>
       <c r="B674">
         <f t="shared" si="21"/>
-        <v>2305000</v>
+        <v>2305100</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
@@ -7726,7 +7728,7 @@
       </c>
       <c r="B675">
         <f t="shared" si="21"/>
-        <v>2311800</v>
+        <v>2311900</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
@@ -7736,7 +7738,7 @@
       </c>
       <c r="B676">
         <f t="shared" si="21"/>
-        <v>2318600</v>
+        <v>2318700</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
@@ -7746,7 +7748,7 @@
       </c>
       <c r="B677">
         <f t="shared" si="21"/>
-        <v>2325400</v>
+        <v>2325500</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
@@ -7756,7 +7758,7 @@
       </c>
       <c r="B678">
         <f t="shared" si="21"/>
-        <v>2332200</v>
+        <v>2332300</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
@@ -7766,7 +7768,7 @@
       </c>
       <c r="B679">
         <f t="shared" si="21"/>
-        <v>2339000</v>
+        <v>2339100</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
@@ -7776,7 +7778,7 @@
       </c>
       <c r="B680">
         <f t="shared" si="21"/>
-        <v>2345800</v>
+        <v>2345900</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
@@ -7786,7 +7788,7 @@
       </c>
       <c r="B681">
         <f t="shared" si="21"/>
-        <v>2352700</v>
+        <v>2352800</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
@@ -7796,7 +7798,7 @@
       </c>
       <c r="B682">
         <f t="shared" si="21"/>
-        <v>2359600</v>
+        <v>2359700</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
@@ -7806,7 +7808,7 @@
       </c>
       <c r="B683">
         <f t="shared" si="21"/>
-        <v>2366500</v>
+        <v>2366600</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
@@ -7816,7 +7818,7 @@
       </c>
       <c r="B684">
         <f t="shared" si="21"/>
-        <v>2373400</v>
+        <v>2373500</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
@@ -7826,7 +7828,7 @@
       </c>
       <c r="B685">
         <f t="shared" si="21"/>
-        <v>2380300</v>
+        <v>2380400</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
@@ -7836,7 +7838,7 @@
       </c>
       <c r="B686">
         <f t="shared" si="21"/>
-        <v>2387200</v>
+        <v>2387300</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
@@ -7846,7 +7848,7 @@
       </c>
       <c r="B687">
         <f t="shared" si="21"/>
-        <v>2394100</v>
+        <v>2394200</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
@@ -7856,7 +7858,7 @@
       </c>
       <c r="B688">
         <f t="shared" si="21"/>
-        <v>2401000</v>
+        <v>2401100</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
@@ -7866,7 +7868,7 @@
       </c>
       <c r="B689">
         <f t="shared" si="21"/>
-        <v>2407900</v>
+        <v>2408000</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
@@ -7876,7 +7878,7 @@
       </c>
       <c r="B690">
         <f t="shared" si="21"/>
-        <v>2414800</v>
+        <v>2414900</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
@@ -7886,7 +7888,7 @@
       </c>
       <c r="B691">
         <f t="shared" si="21"/>
-        <v>2421800</v>
+        <v>2421900</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
@@ -7896,7 +7898,7 @@
       </c>
       <c r="B692">
         <f t="shared" si="21"/>
-        <v>2428800</v>
+        <v>2428900</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
@@ -7906,7 +7908,7 @@
       </c>
       <c r="B693">
         <f t="shared" si="21"/>
-        <v>2435800</v>
+        <v>2435900</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
@@ -7916,7 +7918,7 @@
       </c>
       <c r="B694">
         <f t="shared" si="21"/>
-        <v>2442800</v>
+        <v>2442900</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
@@ -7926,7 +7928,7 @@
       </c>
       <c r="B695">
         <f t="shared" si="21"/>
-        <v>2449800</v>
+        <v>2449900</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
@@ -7936,7 +7938,7 @@
       </c>
       <c r="B696">
         <f t="shared" si="21"/>
-        <v>2456800</v>
+        <v>2456900</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
@@ -7946,7 +7948,7 @@
       </c>
       <c r="B697">
         <f t="shared" si="21"/>
-        <v>2463800</v>
+        <v>2463900</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
@@ -7956,7 +7958,7 @@
       </c>
       <c r="B698">
         <f t="shared" si="21"/>
-        <v>2470800</v>
+        <v>2470900</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
@@ -7966,7 +7968,7 @@
       </c>
       <c r="B699">
         <f t="shared" si="21"/>
-        <v>2477800</v>
+        <v>2477900</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.3">
@@ -7976,7 +7978,7 @@
       </c>
       <c r="B700">
         <f t="shared" si="21"/>
-        <v>2484800</v>
+        <v>2484900</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.3">
@@ -7986,7 +7988,7 @@
       </c>
       <c r="B701">
         <f t="shared" si="21"/>
-        <v>2491900</v>
+        <v>2492000</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
@@ -7996,7 +7998,7 @@
       </c>
       <c r="B702">
         <f t="shared" si="21"/>
-        <v>2499000</v>
+        <v>2499100</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
@@ -8006,7 +8008,7 @@
       </c>
       <c r="B703">
         <f t="shared" si="21"/>
-        <v>2506100</v>
+        <v>2506200</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
@@ -8016,7 +8018,7 @@
       </c>
       <c r="B704">
         <f t="shared" si="21"/>
-        <v>2513200</v>
+        <v>2513300</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
@@ -8026,7 +8028,7 @@
       </c>
       <c r="B705">
         <f t="shared" si="21"/>
-        <v>2520300</v>
+        <v>2520400</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
@@ -8036,7 +8038,7 @@
       </c>
       <c r="B706">
         <f t="shared" si="21"/>
-        <v>2527400</v>
+        <v>2527500</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
@@ -8046,7 +8048,7 @@
       </c>
       <c r="B707">
         <f t="shared" si="21"/>
-        <v>2534500</v>
+        <v>2534600</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
@@ -8056,7 +8058,7 @@
       </c>
       <c r="B708">
         <f t="shared" ref="B708:B771" si="23">B707+VLOOKUP(INT(A708/10), $F$2:$G$102, 2, FALSE)</f>
-        <v>2541600</v>
+        <v>2541700</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
@@ -8066,7 +8068,7 @@
       </c>
       <c r="B709">
         <f t="shared" si="23"/>
-        <v>2548700</v>
+        <v>2548800</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
@@ -8076,7 +8078,7 @@
       </c>
       <c r="B710">
         <f t="shared" si="23"/>
-        <v>2555800</v>
+        <v>2555900</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
@@ -8086,7 +8088,7 @@
       </c>
       <c r="B711">
         <f t="shared" si="23"/>
-        <v>2563000</v>
+        <v>2563100</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
@@ -8096,7 +8098,7 @@
       </c>
       <c r="B712">
         <f t="shared" si="23"/>
-        <v>2570200</v>
+        <v>2570300</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.3">
@@ -8106,7 +8108,7 @@
       </c>
       <c r="B713">
         <f t="shared" si="23"/>
-        <v>2577400</v>
+        <v>2577500</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
@@ -8116,7 +8118,7 @@
       </c>
       <c r="B714">
         <f t="shared" si="23"/>
-        <v>2584600</v>
+        <v>2584700</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.3">
@@ -8126,7 +8128,7 @@
       </c>
       <c r="B715">
         <f t="shared" si="23"/>
-        <v>2591800</v>
+        <v>2591900</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
@@ -8136,7 +8138,7 @@
       </c>
       <c r="B716">
         <f t="shared" si="23"/>
-        <v>2599000</v>
+        <v>2599100</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
@@ -8146,7 +8148,7 @@
       </c>
       <c r="B717">
         <f t="shared" si="23"/>
-        <v>2606200</v>
+        <v>2606300</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
@@ -8156,7 +8158,7 @@
       </c>
       <c r="B718">
         <f t="shared" si="23"/>
-        <v>2613400</v>
+        <v>2613500</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
@@ -8166,7 +8168,7 @@
       </c>
       <c r="B719">
         <f t="shared" si="23"/>
-        <v>2620600</v>
+        <v>2620700</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">
@@ -8176,7 +8178,7 @@
       </c>
       <c r="B720">
         <f t="shared" si="23"/>
-        <v>2627800</v>
+        <v>2627900</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.3">
@@ -8186,7 +8188,7 @@
       </c>
       <c r="B721">
         <f t="shared" si="23"/>
-        <v>2635100</v>
+        <v>2635200</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.3">
@@ -8196,7 +8198,7 @@
       </c>
       <c r="B722">
         <f t="shared" si="23"/>
-        <v>2642400</v>
+        <v>2642500</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.3">
@@ -8206,7 +8208,7 @@
       </c>
       <c r="B723">
         <f t="shared" si="23"/>
-        <v>2649700</v>
+        <v>2649800</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
@@ -8216,7 +8218,7 @@
       </c>
       <c r="B724">
         <f t="shared" si="23"/>
-        <v>2657000</v>
+        <v>2657100</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.3">
@@ -8226,7 +8228,7 @@
       </c>
       <c r="B725">
         <f t="shared" si="23"/>
-        <v>2664300</v>
+        <v>2664400</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
@@ -8236,7 +8238,7 @@
       </c>
       <c r="B726">
         <f t="shared" si="23"/>
-        <v>2671600</v>
+        <v>2671700</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
@@ -8246,7 +8248,7 @@
       </c>
       <c r="B727">
         <f t="shared" si="23"/>
-        <v>2678900</v>
+        <v>2679000</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
@@ -8256,7 +8258,7 @@
       </c>
       <c r="B728">
         <f t="shared" si="23"/>
-        <v>2686200</v>
+        <v>2686300</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.3">
@@ -8266,7 +8268,7 @@
       </c>
       <c r="B729">
         <f t="shared" si="23"/>
-        <v>2693500</v>
+        <v>2693600</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.3">
@@ -8276,7 +8278,7 @@
       </c>
       <c r="B730">
         <f t="shared" si="23"/>
-        <v>2700800</v>
+        <v>2700900</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.3">
@@ -8286,7 +8288,7 @@
       </c>
       <c r="B731">
         <f t="shared" si="23"/>
-        <v>2708200</v>
+        <v>2708300</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.3">
@@ -8296,7 +8298,7 @@
       </c>
       <c r="B732">
         <f t="shared" si="23"/>
-        <v>2715600</v>
+        <v>2715700</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
@@ -8306,7 +8308,7 @@
       </c>
       <c r="B733">
         <f t="shared" si="23"/>
-        <v>2723000</v>
+        <v>2723100</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.3">
@@ -8316,7 +8318,7 @@
       </c>
       <c r="B734">
         <f t="shared" si="23"/>
-        <v>2730400</v>
+        <v>2730500</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
@@ -8326,7 +8328,7 @@
       </c>
       <c r="B735">
         <f t="shared" si="23"/>
-        <v>2737800</v>
+        <v>2737900</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
@@ -8336,7 +8338,7 @@
       </c>
       <c r="B736">
         <f t="shared" si="23"/>
-        <v>2745200</v>
+        <v>2745300</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
@@ -8346,7 +8348,7 @@
       </c>
       <c r="B737">
         <f t="shared" si="23"/>
-        <v>2752600</v>
+        <v>2752700</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
@@ -8356,7 +8358,7 @@
       </c>
       <c r="B738">
         <f t="shared" si="23"/>
-        <v>2760000</v>
+        <v>2760100</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
@@ -8366,7 +8368,7 @@
       </c>
       <c r="B739">
         <f t="shared" si="23"/>
-        <v>2767400</v>
+        <v>2767500</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.3">
@@ -8376,7 +8378,7 @@
       </c>
       <c r="B740">
         <f t="shared" si="23"/>
-        <v>2774800</v>
+        <v>2774900</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.3">
@@ -8386,7 +8388,7 @@
       </c>
       <c r="B741">
         <f t="shared" si="23"/>
-        <v>2782300</v>
+        <v>2782400</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.3">
@@ -8396,7 +8398,7 @@
       </c>
       <c r="B742">
         <f t="shared" si="23"/>
-        <v>2789800</v>
+        <v>2789900</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.3">
@@ -8406,7 +8408,7 @@
       </c>
       <c r="B743">
         <f t="shared" si="23"/>
-        <v>2797300</v>
+        <v>2797400</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.3">
@@ -8416,7 +8418,7 @@
       </c>
       <c r="B744">
         <f t="shared" si="23"/>
-        <v>2804800</v>
+        <v>2804900</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.3">
@@ -8426,7 +8428,7 @@
       </c>
       <c r="B745">
         <f t="shared" si="23"/>
-        <v>2812300</v>
+        <v>2812400</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
@@ -8436,7 +8438,7 @@
       </c>
       <c r="B746">
         <f t="shared" si="23"/>
-        <v>2819800</v>
+        <v>2819900</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
@@ -8446,7 +8448,7 @@
       </c>
       <c r="B747">
         <f t="shared" si="23"/>
-        <v>2827300</v>
+        <v>2827400</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
@@ -8456,7 +8458,7 @@
       </c>
       <c r="B748">
         <f t="shared" si="23"/>
-        <v>2834800</v>
+        <v>2834900</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.3">
@@ -8466,7 +8468,7 @@
       </c>
       <c r="B749">
         <f t="shared" si="23"/>
-        <v>2842300</v>
+        <v>2842400</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.3">
@@ -8476,7 +8478,7 @@
       </c>
       <c r="B750">
         <f t="shared" si="23"/>
-        <v>2849800</v>
+        <v>2849900</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.3">
@@ -8486,7 +8488,7 @@
       </c>
       <c r="B751">
         <f t="shared" si="23"/>
-        <v>2857400</v>
+        <v>2857500</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.3">
@@ -8496,7 +8498,7 @@
       </c>
       <c r="B752">
         <f t="shared" si="23"/>
-        <v>2865000</v>
+        <v>2865100</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.3">
@@ -8506,7 +8508,7 @@
       </c>
       <c r="B753">
         <f t="shared" si="23"/>
-        <v>2872600</v>
+        <v>2872700</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.3">
@@ -8516,7 +8518,7 @@
       </c>
       <c r="B754">
         <f t="shared" si="23"/>
-        <v>2880200</v>
+        <v>2880300</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.3">
@@ -8526,7 +8528,7 @@
       </c>
       <c r="B755">
         <f t="shared" si="23"/>
-        <v>2887800</v>
+        <v>2887900</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.3">
@@ -8536,7 +8538,7 @@
       </c>
       <c r="B756">
         <f t="shared" si="23"/>
-        <v>2895400</v>
+        <v>2895500</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.3">
@@ -8546,7 +8548,7 @@
       </c>
       <c r="B757">
         <f t="shared" si="23"/>
-        <v>2903000</v>
+        <v>2903100</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.3">
@@ -8556,7 +8558,7 @@
       </c>
       <c r="B758">
         <f t="shared" si="23"/>
-        <v>2910600</v>
+        <v>2910700</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.3">
@@ -8566,7 +8568,7 @@
       </c>
       <c r="B759">
         <f t="shared" si="23"/>
-        <v>2918200</v>
+        <v>2918300</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.3">
@@ -8576,7 +8578,7 @@
       </c>
       <c r="B760">
         <f t="shared" si="23"/>
-        <v>2925800</v>
+        <v>2925900</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.3">
@@ -8586,7 +8588,7 @@
       </c>
       <c r="B761">
         <f t="shared" si="23"/>
-        <v>2933500</v>
+        <v>2933600</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.3">
@@ -8596,7 +8598,7 @@
       </c>
       <c r="B762">
         <f t="shared" si="23"/>
-        <v>2941200</v>
+        <v>2941300</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.3">
@@ -8606,7 +8608,7 @@
       </c>
       <c r="B763">
         <f t="shared" si="23"/>
-        <v>2948900</v>
+        <v>2949000</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
@@ -8616,7 +8618,7 @@
       </c>
       <c r="B764">
         <f t="shared" si="23"/>
-        <v>2956600</v>
+        <v>2956700</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.3">
@@ -8626,7 +8628,7 @@
       </c>
       <c r="B765">
         <f t="shared" si="23"/>
-        <v>2964300</v>
+        <v>2964400</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
@@ -8636,7 +8638,7 @@
       </c>
       <c r="B766">
         <f t="shared" si="23"/>
-        <v>2972000</v>
+        <v>2972100</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.3">
@@ -8646,7 +8648,7 @@
       </c>
       <c r="B767">
         <f t="shared" si="23"/>
-        <v>2979700</v>
+        <v>2979800</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
@@ -8656,7 +8658,7 @@
       </c>
       <c r="B768">
         <f t="shared" si="23"/>
-        <v>2987400</v>
+        <v>2987500</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
@@ -8666,7 +8668,7 @@
       </c>
       <c r="B769">
         <f t="shared" si="23"/>
-        <v>2995100</v>
+        <v>2995200</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.3">
@@ -8676,7 +8678,7 @@
       </c>
       <c r="B770">
         <f t="shared" si="23"/>
-        <v>3002800</v>
+        <v>3002900</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.3">
@@ -8686,7 +8688,7 @@
       </c>
       <c r="B771">
         <f t="shared" si="23"/>
-        <v>3010600</v>
+        <v>3010700</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.3">
@@ -8696,7 +8698,7 @@
       </c>
       <c r="B772">
         <f t="shared" ref="B772:B835" si="25">B771+VLOOKUP(INT(A772/10), $F$2:$G$102, 2, FALSE)</f>
-        <v>3018400</v>
+        <v>3018500</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.3">
@@ -8706,7 +8708,7 @@
       </c>
       <c r="B773">
         <f t="shared" si="25"/>
-        <v>3026200</v>
+        <v>3026300</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.3">
@@ -8716,7 +8718,7 @@
       </c>
       <c r="B774">
         <f t="shared" si="25"/>
-        <v>3034000</v>
+        <v>3034100</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.3">
@@ -8726,7 +8728,7 @@
       </c>
       <c r="B775">
         <f t="shared" si="25"/>
-        <v>3041800</v>
+        <v>3041900</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
@@ -8736,7 +8738,7 @@
       </c>
       <c r="B776">
         <f t="shared" si="25"/>
-        <v>3049600</v>
+        <v>3049700</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.3">
@@ -8746,7 +8748,7 @@
       </c>
       <c r="B777">
         <f t="shared" si="25"/>
-        <v>3057400</v>
+        <v>3057500</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.3">
@@ -8756,7 +8758,7 @@
       </c>
       <c r="B778">
         <f t="shared" si="25"/>
-        <v>3065200</v>
+        <v>3065300</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
@@ -8766,7 +8768,7 @@
       </c>
       <c r="B779">
         <f t="shared" si="25"/>
-        <v>3073000</v>
+        <v>3073100</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
@@ -8776,7 +8778,7 @@
       </c>
       <c r="B780">
         <f t="shared" si="25"/>
-        <v>3080800</v>
+        <v>3080900</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.3">
@@ -8786,7 +8788,7 @@
       </c>
       <c r="B781">
         <f t="shared" si="25"/>
-        <v>3088700</v>
+        <v>3088800</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.3">
@@ -8796,7 +8798,7 @@
       </c>
       <c r="B782">
         <f t="shared" si="25"/>
-        <v>3096600</v>
+        <v>3096700</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.3">
@@ -8806,7 +8808,7 @@
       </c>
       <c r="B783">
         <f t="shared" si="25"/>
-        <v>3104500</v>
+        <v>3104600</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.3">
@@ -8816,7 +8818,7 @@
       </c>
       <c r="B784">
         <f t="shared" si="25"/>
-        <v>3112400</v>
+        <v>3112500</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.3">
@@ -8826,7 +8828,7 @@
       </c>
       <c r="B785">
         <f t="shared" si="25"/>
-        <v>3120300</v>
+        <v>3120400</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.3">
@@ -8836,7 +8838,7 @@
       </c>
       <c r="B786">
         <f t="shared" si="25"/>
-        <v>3128200</v>
+        <v>3128300</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.3">
@@ -8846,7 +8848,7 @@
       </c>
       <c r="B787">
         <f t="shared" si="25"/>
-        <v>3136100</v>
+        <v>3136200</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.3">
@@ -8856,7 +8858,7 @@
       </c>
       <c r="B788">
         <f t="shared" si="25"/>
-        <v>3144000</v>
+        <v>3144100</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
@@ -8866,7 +8868,7 @@
       </c>
       <c r="B789">
         <f t="shared" si="25"/>
-        <v>3151900</v>
+        <v>3152000</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.3">
@@ -8876,7 +8878,7 @@
       </c>
       <c r="B790">
         <f t="shared" si="25"/>
-        <v>3159800</v>
+        <v>3159900</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.3">
@@ -8886,7 +8888,7 @@
       </c>
       <c r="B791">
         <f t="shared" si="25"/>
-        <v>3167800</v>
+        <v>3167900</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
@@ -8896,7 +8898,7 @@
       </c>
       <c r="B792">
         <f t="shared" si="25"/>
-        <v>3175800</v>
+        <v>3175900</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
@@ -8906,7 +8908,7 @@
       </c>
       <c r="B793">
         <f t="shared" si="25"/>
-        <v>3183800</v>
+        <v>3183900</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.3">
@@ -8916,7 +8918,7 @@
       </c>
       <c r="B794">
         <f t="shared" si="25"/>
-        <v>3191800</v>
+        <v>3191900</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.3">
@@ -8926,7 +8928,7 @@
       </c>
       <c r="B795">
         <f t="shared" si="25"/>
-        <v>3199800</v>
+        <v>3199900</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.3">
@@ -8936,7 +8938,7 @@
       </c>
       <c r="B796">
         <f t="shared" si="25"/>
-        <v>3207800</v>
+        <v>3207900</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.3">
@@ -8946,7 +8948,7 @@
       </c>
       <c r="B797">
         <f t="shared" si="25"/>
-        <v>3215800</v>
+        <v>3215900</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.3">
@@ -8956,7 +8958,7 @@
       </c>
       <c r="B798">
         <f t="shared" si="25"/>
-        <v>3223800</v>
+        <v>3223900</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.3">
@@ -8966,7 +8968,7 @@
       </c>
       <c r="B799">
         <f t="shared" si="25"/>
-        <v>3231800</v>
+        <v>3231900</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.3">
@@ -8976,7 +8978,7 @@
       </c>
       <c r="B800">
         <f t="shared" si="25"/>
-        <v>3239800</v>
+        <v>3239900</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.3">
@@ -8986,7 +8988,7 @@
       </c>
       <c r="B801">
         <f t="shared" si="25"/>
-        <v>3247900</v>
+        <v>3248000</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.3">
@@ -8996,7 +8998,7 @@
       </c>
       <c r="B802">
         <f t="shared" si="25"/>
-        <v>3256000</v>
+        <v>3256100</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.3">
@@ -9006,7 +9008,7 @@
       </c>
       <c r="B803">
         <f t="shared" si="25"/>
-        <v>3264100</v>
+        <v>3264200</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.3">
@@ -9016,7 +9018,7 @@
       </c>
       <c r="B804">
         <f t="shared" si="25"/>
-        <v>3272200</v>
+        <v>3272300</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.3">
@@ -9026,7 +9028,7 @@
       </c>
       <c r="B805">
         <f t="shared" si="25"/>
-        <v>3280300</v>
+        <v>3280400</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.3">
@@ -9036,7 +9038,7 @@
       </c>
       <c r="B806">
         <f t="shared" si="25"/>
-        <v>3288400</v>
+        <v>3288500</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.3">
@@ -9046,7 +9048,7 @@
       </c>
       <c r="B807">
         <f t="shared" si="25"/>
-        <v>3296500</v>
+        <v>3296600</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.3">
@@ -9056,7 +9058,7 @@
       </c>
       <c r="B808">
         <f t="shared" si="25"/>
-        <v>3304600</v>
+        <v>3304700</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.3">
@@ -9066,7 +9068,7 @@
       </c>
       <c r="B809">
         <f t="shared" si="25"/>
-        <v>3312700</v>
+        <v>3312800</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.3">
@@ -9076,7 +9078,7 @@
       </c>
       <c r="B810">
         <f t="shared" si="25"/>
-        <v>3320800</v>
+        <v>3320900</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.3">
@@ -9086,7 +9088,7 @@
       </c>
       <c r="B811">
         <f t="shared" si="25"/>
-        <v>3329000</v>
+        <v>3329100</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.3">
@@ -9096,7 +9098,7 @@
       </c>
       <c r="B812">
         <f t="shared" si="25"/>
-        <v>3337200</v>
+        <v>3337300</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.3">
@@ -9106,7 +9108,7 @@
       </c>
       <c r="B813">
         <f t="shared" si="25"/>
-        <v>3345400</v>
+        <v>3345500</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.3">
@@ -9116,7 +9118,7 @@
       </c>
       <c r="B814">
         <f t="shared" si="25"/>
-        <v>3353600</v>
+        <v>3353700</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.3">
@@ -9126,7 +9128,7 @@
       </c>
       <c r="B815">
         <f t="shared" si="25"/>
-        <v>3361800</v>
+        <v>3361900</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
@@ -9136,7 +9138,7 @@
       </c>
       <c r="B816">
         <f t="shared" si="25"/>
-        <v>3370000</v>
+        <v>3370100</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.3">
@@ -9146,7 +9148,7 @@
       </c>
       <c r="B817">
         <f t="shared" si="25"/>
-        <v>3378200</v>
+        <v>3378300</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.3">
@@ -9156,7 +9158,7 @@
       </c>
       <c r="B818">
         <f t="shared" si="25"/>
-        <v>3386400</v>
+        <v>3386500</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.3">
@@ -9166,7 +9168,7 @@
       </c>
       <c r="B819">
         <f t="shared" si="25"/>
-        <v>3394600</v>
+        <v>3394700</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.3">
@@ -9176,7 +9178,7 @@
       </c>
       <c r="B820">
         <f t="shared" si="25"/>
-        <v>3402800</v>
+        <v>3402900</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.3">
@@ -9186,7 +9188,7 @@
       </c>
       <c r="B821">
         <f t="shared" si="25"/>
-        <v>3411100</v>
+        <v>3411200</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.3">
@@ -9196,7 +9198,7 @@
       </c>
       <c r="B822">
         <f t="shared" si="25"/>
-        <v>3419400</v>
+        <v>3419500</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.3">
@@ -9206,7 +9208,7 @@
       </c>
       <c r="B823">
         <f t="shared" si="25"/>
-        <v>3427700</v>
+        <v>3427800</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.3">
@@ -9216,7 +9218,7 @@
       </c>
       <c r="B824">
         <f t="shared" si="25"/>
-        <v>3436000</v>
+        <v>3436100</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.3">
@@ -9226,7 +9228,7 @@
       </c>
       <c r="B825">
         <f t="shared" si="25"/>
-        <v>3444300</v>
+        <v>3444400</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.3">
@@ -9236,7 +9238,7 @@
       </c>
       <c r="B826">
         <f t="shared" si="25"/>
-        <v>3452600</v>
+        <v>3452700</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.3">
@@ -9246,7 +9248,7 @@
       </c>
       <c r="B827">
         <f t="shared" si="25"/>
-        <v>3460900</v>
+        <v>3461000</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.3">
@@ -9256,7 +9258,7 @@
       </c>
       <c r="B828">
         <f t="shared" si="25"/>
-        <v>3469200</v>
+        <v>3469300</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.3">
@@ -9266,7 +9268,7 @@
       </c>
       <c r="B829">
         <f t="shared" si="25"/>
-        <v>3477500</v>
+        <v>3477600</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.3">
@@ -9276,7 +9278,7 @@
       </c>
       <c r="B830">
         <f t="shared" si="25"/>
-        <v>3485800</v>
+        <v>3485900</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.3">
@@ -9286,7 +9288,7 @@
       </c>
       <c r="B831">
         <f t="shared" si="25"/>
-        <v>3494200</v>
+        <v>3494300</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.3">
@@ -9296,7 +9298,7 @@
       </c>
       <c r="B832">
         <f t="shared" si="25"/>
-        <v>3502600</v>
+        <v>3502700</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.3">
@@ -9306,7 +9308,7 @@
       </c>
       <c r="B833">
         <f t="shared" si="25"/>
-        <v>3511000</v>
+        <v>3511100</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.3">
@@ -9316,7 +9318,7 @@
       </c>
       <c r="B834">
         <f t="shared" si="25"/>
-        <v>3519400</v>
+        <v>3519500</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.3">
@@ -9326,7 +9328,7 @@
       </c>
       <c r="B835">
         <f t="shared" si="25"/>
-        <v>3527800</v>
+        <v>3527900</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.3">
@@ -9336,7 +9338,7 @@
       </c>
       <c r="B836">
         <f t="shared" ref="B836:B899" si="27">B835+VLOOKUP(INT(A836/10), $F$2:$G$102, 2, FALSE)</f>
-        <v>3536200</v>
+        <v>3536300</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.3">
@@ -9346,7 +9348,7 @@
       </c>
       <c r="B837">
         <f t="shared" si="27"/>
-        <v>3544600</v>
+        <v>3544700</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.3">
@@ -9356,7 +9358,7 @@
       </c>
       <c r="B838">
         <f t="shared" si="27"/>
-        <v>3553000</v>
+        <v>3553100</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.3">
@@ -9366,7 +9368,7 @@
       </c>
       <c r="B839">
         <f t="shared" si="27"/>
-        <v>3561400</v>
+        <v>3561500</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.3">
@@ -9376,7 +9378,7 @@
       </c>
       <c r="B840">
         <f t="shared" si="27"/>
-        <v>3569800</v>
+        <v>3569900</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.3">
@@ -9386,7 +9388,7 @@
       </c>
       <c r="B841">
         <f t="shared" si="27"/>
-        <v>3578300</v>
+        <v>3578400</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.3">
@@ -9396,7 +9398,7 @@
       </c>
       <c r="B842">
         <f t="shared" si="27"/>
-        <v>3586800</v>
+        <v>3586900</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.3">
@@ -9406,7 +9408,7 @@
       </c>
       <c r="B843">
         <f t="shared" si="27"/>
-        <v>3595300</v>
+        <v>3595400</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.3">
@@ -9416,7 +9418,7 @@
       </c>
       <c r="B844">
         <f t="shared" si="27"/>
-        <v>3603800</v>
+        <v>3603900</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.3">
@@ -9426,7 +9428,7 @@
       </c>
       <c r="B845">
         <f t="shared" si="27"/>
-        <v>3612300</v>
+        <v>3612400</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.3">
@@ -9436,7 +9438,7 @@
       </c>
       <c r="B846">
         <f t="shared" si="27"/>
-        <v>3620800</v>
+        <v>3620900</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.3">
@@ -9446,7 +9448,7 @@
       </c>
       <c r="B847">
         <f t="shared" si="27"/>
-        <v>3629300</v>
+        <v>3629400</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.3">
@@ -9456,7 +9458,7 @@
       </c>
       <c r="B848">
         <f t="shared" si="27"/>
-        <v>3637800</v>
+        <v>3637900</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.3">
@@ -9466,7 +9468,7 @@
       </c>
       <c r="B849">
         <f t="shared" si="27"/>
-        <v>3646300</v>
+        <v>3646400</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.3">
@@ -9476,7 +9478,7 @@
       </c>
       <c r="B850">
         <f t="shared" si="27"/>
-        <v>3654800</v>
+        <v>3654900</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.3">
@@ -9486,7 +9488,7 @@
       </c>
       <c r="B851">
         <f t="shared" si="27"/>
-        <v>3663400</v>
+        <v>3663500</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.3">
@@ -9496,7 +9498,7 @@
       </c>
       <c r="B852">
         <f t="shared" si="27"/>
-        <v>3672000</v>
+        <v>3672100</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.3">
@@ -9506,7 +9508,7 @@
       </c>
       <c r="B853">
         <f t="shared" si="27"/>
-        <v>3680600</v>
+        <v>3680700</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.3">
@@ -9516,7 +9518,7 @@
       </c>
       <c r="B854">
         <f t="shared" si="27"/>
-        <v>3689200</v>
+        <v>3689300</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.3">
@@ -9526,7 +9528,7 @@
       </c>
       <c r="B855">
         <f t="shared" si="27"/>
-        <v>3697800</v>
+        <v>3697900</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.3">
@@ -9536,7 +9538,7 @@
       </c>
       <c r="B856">
         <f t="shared" si="27"/>
-        <v>3706400</v>
+        <v>3706500</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.3">
@@ -9546,7 +9548,7 @@
       </c>
       <c r="B857">
         <f t="shared" si="27"/>
-        <v>3715000</v>
+        <v>3715100</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
@@ -9556,7 +9558,7 @@
       </c>
       <c r="B858">
         <f t="shared" si="27"/>
-        <v>3723600</v>
+        <v>3723700</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.3">
@@ -9566,7 +9568,7 @@
       </c>
       <c r="B859">
         <f t="shared" si="27"/>
-        <v>3732200</v>
+        <v>3732300</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.3">
@@ -9576,7 +9578,7 @@
       </c>
       <c r="B860">
         <f t="shared" si="27"/>
-        <v>3740800</v>
+        <v>3740900</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.3">
@@ -9586,7 +9588,7 @@
       </c>
       <c r="B861">
         <f t="shared" si="27"/>
-        <v>3749500</v>
+        <v>3749600</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.3">
@@ -9596,7 +9598,7 @@
       </c>
       <c r="B862">
         <f t="shared" si="27"/>
-        <v>3758200</v>
+        <v>3758300</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.3">
@@ -9606,7 +9608,7 @@
       </c>
       <c r="B863">
         <f t="shared" si="27"/>
-        <v>3766900</v>
+        <v>3767000</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.3">
@@ -9616,7 +9618,7 @@
       </c>
       <c r="B864">
         <f t="shared" si="27"/>
-        <v>3775600</v>
+        <v>3775700</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.3">
@@ -9626,7 +9628,7 @@
       </c>
       <c r="B865">
         <f t="shared" si="27"/>
-        <v>3784300</v>
+        <v>3784400</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.3">
@@ -9636,7 +9638,7 @@
       </c>
       <c r="B866">
         <f t="shared" si="27"/>
-        <v>3793000</v>
+        <v>3793100</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.3">
@@ -9646,7 +9648,7 @@
       </c>
       <c r="B867">
         <f t="shared" si="27"/>
-        <v>3801700</v>
+        <v>3801800</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.3">
@@ -9656,7 +9658,7 @@
       </c>
       <c r="B868">
         <f t="shared" si="27"/>
-        <v>3810400</v>
+        <v>3810500</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.3">
@@ -9666,7 +9668,7 @@
       </c>
       <c r="B869">
         <f t="shared" si="27"/>
-        <v>3819100</v>
+        <v>3819200</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.3">
@@ -9676,7 +9678,7 @@
       </c>
       <c r="B870">
         <f t="shared" si="27"/>
-        <v>3827800</v>
+        <v>3827900</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.3">
@@ -9686,7 +9688,7 @@
       </c>
       <c r="B871">
         <f t="shared" si="27"/>
-        <v>3836600</v>
+        <v>3836700</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.3">
@@ -9696,7 +9698,7 @@
       </c>
       <c r="B872">
         <f t="shared" si="27"/>
-        <v>3845400</v>
+        <v>3845500</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.3">
@@ -9706,7 +9708,7 @@
       </c>
       <c r="B873">
         <f t="shared" si="27"/>
-        <v>3854200</v>
+        <v>3854300</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.3">
@@ -9716,7 +9718,7 @@
       </c>
       <c r="B874">
         <f t="shared" si="27"/>
-        <v>3863000</v>
+        <v>3863100</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.3">
@@ -9726,7 +9728,7 @@
       </c>
       <c r="B875">
         <f t="shared" si="27"/>
-        <v>3871800</v>
+        <v>3871900</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.3">
@@ -9736,7 +9738,7 @@
       </c>
       <c r="B876">
         <f t="shared" si="27"/>
-        <v>3880600</v>
+        <v>3880700</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.3">
@@ -9746,7 +9748,7 @@
       </c>
       <c r="B877">
         <f t="shared" si="27"/>
-        <v>3889400</v>
+        <v>3889500</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.3">
@@ -9756,7 +9758,7 @@
       </c>
       <c r="B878">
         <f t="shared" si="27"/>
-        <v>3898200</v>
+        <v>3898300</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.3">
@@ -9766,7 +9768,7 @@
       </c>
       <c r="B879">
         <f t="shared" si="27"/>
-        <v>3907000</v>
+        <v>3907100</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.3">
@@ -9776,7 +9778,7 @@
       </c>
       <c r="B880">
         <f t="shared" si="27"/>
-        <v>3915800</v>
+        <v>3915900</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.3">
@@ -9786,7 +9788,7 @@
       </c>
       <c r="B881">
         <f t="shared" si="27"/>
-        <v>3924700</v>
+        <v>3924800</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.3">
@@ -9796,7 +9798,7 @@
       </c>
       <c r="B882">
         <f t="shared" si="27"/>
-        <v>3933600</v>
+        <v>3933700</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.3">
@@ -9806,7 +9808,7 @@
       </c>
       <c r="B883">
         <f t="shared" si="27"/>
-        <v>3942500</v>
+        <v>3942600</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.3">
@@ -9816,7 +9818,7 @@
       </c>
       <c r="B884">
         <f t="shared" si="27"/>
-        <v>3951400</v>
+        <v>3951500</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.3">
@@ -9826,7 +9828,7 @@
       </c>
       <c r="B885">
         <f t="shared" si="27"/>
-        <v>3960300</v>
+        <v>3960400</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.3">
@@ -9836,7 +9838,7 @@
       </c>
       <c r="B886">
         <f t="shared" si="27"/>
-        <v>3969200</v>
+        <v>3969300</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.3">
@@ -9846,7 +9848,7 @@
       </c>
       <c r="B887">
         <f t="shared" si="27"/>
-        <v>3978100</v>
+        <v>3978200</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.3">
@@ -9856,7 +9858,7 @@
       </c>
       <c r="B888">
         <f t="shared" si="27"/>
-        <v>3987000</v>
+        <v>3987100</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.3">
@@ -9866,7 +9868,7 @@
       </c>
       <c r="B889">
         <f t="shared" si="27"/>
-        <v>3995900</v>
+        <v>3996000</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.3">
@@ -9876,7 +9878,7 @@
       </c>
       <c r="B890">
         <f t="shared" si="27"/>
-        <v>4004800</v>
+        <v>4004900</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.3">
@@ -9886,7 +9888,7 @@
       </c>
       <c r="B891">
         <f t="shared" si="27"/>
-        <v>4013800</v>
+        <v>4013900</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.3">
@@ -9896,7 +9898,7 @@
       </c>
       <c r="B892">
         <f t="shared" si="27"/>
-        <v>4022800</v>
+        <v>4022900</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.3">
@@ -9906,7 +9908,7 @@
       </c>
       <c r="B893">
         <f t="shared" si="27"/>
-        <v>4031800</v>
+        <v>4031900</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.3">
@@ -9916,7 +9918,7 @@
       </c>
       <c r="B894">
         <f t="shared" si="27"/>
-        <v>4040800</v>
+        <v>4040900</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.3">
@@ -9926,7 +9928,7 @@
       </c>
       <c r="B895">
         <f t="shared" si="27"/>
-        <v>4049800</v>
+        <v>4049900</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.3">
@@ -9936,7 +9938,7 @@
       </c>
       <c r="B896">
         <f t="shared" si="27"/>
-        <v>4058800</v>
+        <v>4058900</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.3">
@@ -9946,7 +9948,7 @@
       </c>
       <c r="B897">
         <f t="shared" si="27"/>
-        <v>4067800</v>
+        <v>4067900</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.3">
@@ -9956,7 +9958,7 @@
       </c>
       <c r="B898">
         <f t="shared" si="27"/>
-        <v>4076800</v>
+        <v>4076900</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.3">
@@ -9966,7 +9968,7 @@
       </c>
       <c r="B899">
         <f t="shared" si="27"/>
-        <v>4085800</v>
+        <v>4085900</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.3">
@@ -9976,7 +9978,7 @@
       </c>
       <c r="B900">
         <f t="shared" ref="B900:B963" si="29">B899+VLOOKUP(INT(A900/10), $F$2:$G$102, 2, FALSE)</f>
-        <v>4094800</v>
+        <v>4094900</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.3">
@@ -9986,7 +9988,7 @@
       </c>
       <c r="B901">
         <f t="shared" si="29"/>
-        <v>4103900</v>
+        <v>4104000</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.3">
@@ -9996,7 +9998,7 @@
       </c>
       <c r="B902">
         <f t="shared" si="29"/>
-        <v>4113000</v>
+        <v>4113100</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.3">
@@ -10006,7 +10008,7 @@
       </c>
       <c r="B903">
         <f t="shared" si="29"/>
-        <v>4122100</v>
+        <v>4122200</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.3">
@@ -10016,7 +10018,7 @@
       </c>
       <c r="B904">
         <f t="shared" si="29"/>
-        <v>4131200</v>
+        <v>4131300</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.3">
@@ -10026,7 +10028,7 @@
       </c>
       <c r="B905">
         <f t="shared" si="29"/>
-        <v>4140300</v>
+        <v>4140400</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.3">
@@ -10036,7 +10038,7 @@
       </c>
       <c r="B906">
         <f t="shared" si="29"/>
-        <v>4149400</v>
+        <v>4149500</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.3">
@@ -10046,7 +10048,7 @@
       </c>
       <c r="B907">
         <f t="shared" si="29"/>
-        <v>4158500</v>
+        <v>4158600</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.3">
@@ -10056,7 +10058,7 @@
       </c>
       <c r="B908">
         <f t="shared" si="29"/>
-        <v>4167600</v>
+        <v>4167700</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.3">
@@ -10066,7 +10068,7 @@
       </c>
       <c r="B909">
         <f t="shared" si="29"/>
-        <v>4176700</v>
+        <v>4176800</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.3">
@@ -10076,7 +10078,7 @@
       </c>
       <c r="B910">
         <f t="shared" si="29"/>
-        <v>4185800</v>
+        <v>4185900</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.3">
@@ -10086,7 +10088,7 @@
       </c>
       <c r="B911">
         <f t="shared" si="29"/>
-        <v>4195000</v>
+        <v>4195100</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.3">
@@ -10096,7 +10098,7 @@
       </c>
       <c r="B912">
         <f t="shared" si="29"/>
-        <v>4204200</v>
+        <v>4204300</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.3">
@@ -10106,7 +10108,7 @@
       </c>
       <c r="B913">
         <f t="shared" si="29"/>
-        <v>4213400</v>
+        <v>4213500</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.3">
@@ -10116,7 +10118,7 @@
       </c>
       <c r="B914">
         <f t="shared" si="29"/>
-        <v>4222600</v>
+        <v>4222700</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.3">
@@ -10126,7 +10128,7 @@
       </c>
       <c r="B915">
         <f t="shared" si="29"/>
-        <v>4231800</v>
+        <v>4231900</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.3">
@@ -10136,7 +10138,7 @@
       </c>
       <c r="B916">
         <f t="shared" si="29"/>
-        <v>4241000</v>
+        <v>4241100</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.3">
@@ -10146,7 +10148,7 @@
       </c>
       <c r="B917">
         <f t="shared" si="29"/>
-        <v>4250200</v>
+        <v>4250300</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.3">
@@ -10156,7 +10158,7 @@
       </c>
       <c r="B918">
         <f t="shared" si="29"/>
-        <v>4259400</v>
+        <v>4259500</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.3">
@@ -10166,7 +10168,7 @@
       </c>
       <c r="B919">
         <f t="shared" si="29"/>
-        <v>4268600</v>
+        <v>4268700</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.3">
@@ -10176,7 +10178,7 @@
       </c>
       <c r="B920">
         <f t="shared" si="29"/>
-        <v>4277800</v>
+        <v>4277900</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.3">
@@ -10186,7 +10188,7 @@
       </c>
       <c r="B921">
         <f t="shared" si="29"/>
-        <v>4287100</v>
+        <v>4287200</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.3">
@@ -10196,7 +10198,7 @@
       </c>
       <c r="B922">
         <f t="shared" si="29"/>
-        <v>4296400</v>
+        <v>4296500</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.3">
@@ -10206,7 +10208,7 @@
       </c>
       <c r="B923">
         <f t="shared" si="29"/>
-        <v>4305700</v>
+        <v>4305800</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.3">
@@ -10216,7 +10218,7 @@
       </c>
       <c r="B924">
         <f t="shared" si="29"/>
-        <v>4315000</v>
+        <v>4315100</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.3">
@@ -10226,7 +10228,7 @@
       </c>
       <c r="B925">
         <f t="shared" si="29"/>
-        <v>4324300</v>
+        <v>4324400</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.3">
@@ -10236,7 +10238,7 @@
       </c>
       <c r="B926">
         <f t="shared" si="29"/>
-        <v>4333600</v>
+        <v>4333700</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.3">
@@ -10246,7 +10248,7 @@
       </c>
       <c r="B927">
         <f t="shared" si="29"/>
-        <v>4342900</v>
+        <v>4343000</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.3">
@@ -10256,7 +10258,7 @@
       </c>
       <c r="B928">
         <f t="shared" si="29"/>
-        <v>4352200</v>
+        <v>4352300</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.3">
@@ -10266,7 +10268,7 @@
       </c>
       <c r="B929">
         <f t="shared" si="29"/>
-        <v>4361500</v>
+        <v>4361600</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.3">
@@ -10276,7 +10278,7 @@
       </c>
       <c r="B930">
         <f t="shared" si="29"/>
-        <v>4370800</v>
+        <v>4370900</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.3">
@@ -10286,7 +10288,7 @@
       </c>
       <c r="B931">
         <f t="shared" si="29"/>
-        <v>4380200</v>
+        <v>4380300</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.3">
@@ -10296,7 +10298,7 @@
       </c>
       <c r="B932">
         <f t="shared" si="29"/>
-        <v>4389600</v>
+        <v>4389700</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.3">
@@ -10306,7 +10308,7 @@
       </c>
       <c r="B933">
         <f t="shared" si="29"/>
-        <v>4399000</v>
+        <v>4399100</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.3">
@@ -10316,7 +10318,7 @@
       </c>
       <c r="B934">
         <f t="shared" si="29"/>
-        <v>4408400</v>
+        <v>4408500</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.3">
@@ -10326,7 +10328,7 @@
       </c>
       <c r="B935">
         <f t="shared" si="29"/>
-        <v>4417800</v>
+        <v>4417900</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.3">
@@ -10336,7 +10338,7 @@
       </c>
       <c r="B936">
         <f t="shared" si="29"/>
-        <v>4427200</v>
+        <v>4427300</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.3">
@@ -10346,7 +10348,7 @@
       </c>
       <c r="B937">
         <f t="shared" si="29"/>
-        <v>4436600</v>
+        <v>4436700</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.3">
@@ -10356,7 +10358,7 @@
       </c>
       <c r="B938">
         <f t="shared" si="29"/>
-        <v>4446000</v>
+        <v>4446100</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.3">
@@ -10366,7 +10368,7 @@
       </c>
       <c r="B939">
         <f t="shared" si="29"/>
-        <v>4455400</v>
+        <v>4455500</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.3">
@@ -10376,7 +10378,7 @@
       </c>
       <c r="B940">
         <f t="shared" si="29"/>
-        <v>4464800</v>
+        <v>4464900</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.3">
@@ -10386,7 +10388,7 @@
       </c>
       <c r="B941">
         <f t="shared" si="29"/>
-        <v>4474300</v>
+        <v>4474400</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.3">
@@ -10396,7 +10398,7 @@
       </c>
       <c r="B942">
         <f t="shared" si="29"/>
-        <v>4483800</v>
+        <v>4483900</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.3">
@@ -10406,7 +10408,7 @@
       </c>
       <c r="B943">
         <f t="shared" si="29"/>
-        <v>4493300</v>
+        <v>4493400</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.3">
@@ -10416,7 +10418,7 @@
       </c>
       <c r="B944">
         <f t="shared" si="29"/>
-        <v>4502800</v>
+        <v>4502900</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.3">
@@ -10426,7 +10428,7 @@
       </c>
       <c r="B945">
         <f t="shared" si="29"/>
-        <v>4512300</v>
+        <v>4512400</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.3">
@@ -10436,7 +10438,7 @@
       </c>
       <c r="B946">
         <f t="shared" si="29"/>
-        <v>4521800</v>
+        <v>4521900</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.3">
@@ -10446,7 +10448,7 @@
       </c>
       <c r="B947">
         <f t="shared" si="29"/>
-        <v>4531300</v>
+        <v>4531400</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.3">
@@ -10456,7 +10458,7 @@
       </c>
       <c r="B948">
         <f t="shared" si="29"/>
-        <v>4540800</v>
+        <v>4540900</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.3">
@@ -10466,7 +10468,7 @@
       </c>
       <c r="B949">
         <f t="shared" si="29"/>
-        <v>4550300</v>
+        <v>4550400</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.3">
@@ -10476,7 +10478,7 @@
       </c>
       <c r="B950">
         <f t="shared" si="29"/>
-        <v>4559800</v>
+        <v>4559900</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.3">
@@ -10486,7 +10488,7 @@
       </c>
       <c r="B951">
         <f t="shared" si="29"/>
-        <v>4569400</v>
+        <v>4569500</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.3">
@@ -10496,7 +10498,7 @@
       </c>
       <c r="B952">
         <f t="shared" si="29"/>
-        <v>4579000</v>
+        <v>4579100</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.3">
@@ -10506,7 +10508,7 @@
       </c>
       <c r="B953">
         <f t="shared" si="29"/>
-        <v>4588600</v>
+        <v>4588700</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.3">
@@ -10516,7 +10518,7 @@
       </c>
       <c r="B954">
         <f t="shared" si="29"/>
-        <v>4598200</v>
+        <v>4598300</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.3">
@@ -10526,7 +10528,7 @@
       </c>
       <c r="B955">
         <f t="shared" si="29"/>
-        <v>4607800</v>
+        <v>4607900</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.3">
@@ -10536,7 +10538,7 @@
       </c>
       <c r="B956">
         <f t="shared" si="29"/>
-        <v>4617400</v>
+        <v>4617500</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.3">
@@ -10546,7 +10548,7 @@
       </c>
       <c r="B957">
         <f t="shared" si="29"/>
-        <v>4627000</v>
+        <v>4627100</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.3">
@@ -10556,7 +10558,7 @@
       </c>
       <c r="B958">
         <f t="shared" si="29"/>
-        <v>4636600</v>
+        <v>4636700</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.3">
@@ -10566,7 +10568,7 @@
       </c>
       <c r="B959">
         <f t="shared" si="29"/>
-        <v>4646200</v>
+        <v>4646300</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.3">
@@ -10576,7 +10578,7 @@
       </c>
       <c r="B960">
         <f t="shared" si="29"/>
-        <v>4655800</v>
+        <v>4655900</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.3">
@@ -10586,7 +10588,7 @@
       </c>
       <c r="B961">
         <f t="shared" si="29"/>
-        <v>4665500</v>
+        <v>4665600</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.3">
@@ -10596,7 +10598,7 @@
       </c>
       <c r="B962">
         <f t="shared" si="29"/>
-        <v>4675200</v>
+        <v>4675300</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.3">
@@ -10606,7 +10608,7 @@
       </c>
       <c r="B963">
         <f t="shared" si="29"/>
-        <v>4684900</v>
+        <v>4685000</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.3">
@@ -10616,7 +10618,7 @@
       </c>
       <c r="B964">
         <f t="shared" ref="B964:B1001" si="31">B963+VLOOKUP(INT(A964/10), $F$2:$G$102, 2, FALSE)</f>
-        <v>4694600</v>
+        <v>4694700</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.3">
@@ -10626,7 +10628,7 @@
       </c>
       <c r="B965">
         <f t="shared" si="31"/>
-        <v>4704300</v>
+        <v>4704400</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.3">
@@ -10636,7 +10638,7 @@
       </c>
       <c r="B966">
         <f t="shared" si="31"/>
-        <v>4714000</v>
+        <v>4714100</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.3">
@@ -10646,7 +10648,7 @@
       </c>
       <c r="B967">
         <f t="shared" si="31"/>
-        <v>4723700</v>
+        <v>4723800</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.3">
@@ -10656,7 +10658,7 @@
       </c>
       <c r="B968">
         <f t="shared" si="31"/>
-        <v>4733400</v>
+        <v>4733500</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.3">
@@ -10666,7 +10668,7 @@
       </c>
       <c r="B969">
         <f t="shared" si="31"/>
-        <v>4743100</v>
+        <v>4743200</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.3">
@@ -10676,7 +10678,7 @@
       </c>
       <c r="B970">
         <f t="shared" si="31"/>
-        <v>4752800</v>
+        <v>4752900</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.3">
@@ -10686,7 +10688,7 @@
       </c>
       <c r="B971">
         <f t="shared" si="31"/>
-        <v>4762600</v>
+        <v>4762700</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.3">
@@ -10696,7 +10698,7 @@
       </c>
       <c r="B972">
         <f t="shared" si="31"/>
-        <v>4772400</v>
+        <v>4772500</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.3">
@@ -10706,7 +10708,7 @@
       </c>
       <c r="B973">
         <f t="shared" si="31"/>
-        <v>4782200</v>
+        <v>4782300</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.3">
@@ -10716,7 +10718,7 @@
       </c>
       <c r="B974">
         <f t="shared" si="31"/>
-        <v>4792000</v>
+        <v>4792100</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.3">
@@ -10726,7 +10728,7 @@
       </c>
       <c r="B975">
         <f t="shared" si="31"/>
-        <v>4801800</v>
+        <v>4801900</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.3">
@@ -10736,7 +10738,7 @@
       </c>
       <c r="B976">
         <f t="shared" si="31"/>
-        <v>4811600</v>
+        <v>4811700</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.3">
@@ -10746,7 +10748,7 @@
       </c>
       <c r="B977">
         <f t="shared" si="31"/>
-        <v>4821400</v>
+        <v>4821500</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.3">
@@ -10756,7 +10758,7 @@
       </c>
       <c r="B978">
         <f t="shared" si="31"/>
-        <v>4831200</v>
+        <v>4831300</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.3">
@@ -10766,7 +10768,7 @@
       </c>
       <c r="B979">
         <f t="shared" si="31"/>
-        <v>4841000</v>
+        <v>4841100</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.3">
@@ -10776,7 +10778,7 @@
       </c>
       <c r="B980">
         <f t="shared" si="31"/>
-        <v>4850800</v>
+        <v>4850900</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.3">
@@ -10786,7 +10788,7 @@
       </c>
       <c r="B981">
         <f t="shared" si="31"/>
-        <v>4860700</v>
+        <v>4860800</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.3">
@@ -10796,7 +10798,7 @@
       </c>
       <c r="B982">
         <f t="shared" si="31"/>
-        <v>4870600</v>
+        <v>4870700</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.3">
@@ -10806,7 +10808,7 @@
       </c>
       <c r="B983">
         <f t="shared" si="31"/>
-        <v>4880500</v>
+        <v>4880600</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.3">
@@ -10816,7 +10818,7 @@
       </c>
       <c r="B984">
         <f t="shared" si="31"/>
-        <v>4890400</v>
+        <v>4890500</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.3">
@@ -10826,7 +10828,7 @@
       </c>
       <c r="B985">
         <f t="shared" si="31"/>
-        <v>4900300</v>
+        <v>4900400</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.3">
@@ -10836,7 +10838,7 @@
       </c>
       <c r="B986">
         <f t="shared" si="31"/>
-        <v>4910200</v>
+        <v>4910300</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.3">
@@ -10846,7 +10848,7 @@
       </c>
       <c r="B987">
         <f t="shared" si="31"/>
-        <v>4920100</v>
+        <v>4920200</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.3">
@@ -10856,7 +10858,7 @@
       </c>
       <c r="B988">
         <f t="shared" si="31"/>
-        <v>4930000</v>
+        <v>4930100</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.3">
@@ -10866,7 +10868,7 @@
       </c>
       <c r="B989">
         <f t="shared" si="31"/>
-        <v>4939900</v>
+        <v>4940000</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.3">
@@ -10876,7 +10878,7 @@
       </c>
       <c r="B990">
         <f t="shared" si="31"/>
-        <v>4949800</v>
+        <v>4949900</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.3">
@@ -10886,7 +10888,7 @@
       </c>
       <c r="B991">
         <f t="shared" si="31"/>
-        <v>4959800</v>
+        <v>4959900</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.3">
@@ -10896,7 +10898,7 @@
       </c>
       <c r="B992">
         <f t="shared" si="31"/>
-        <v>4969800</v>
+        <v>4969900</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.3">
@@ -10906,7 +10908,7 @@
       </c>
       <c r="B993">
         <f t="shared" si="31"/>
-        <v>4979800</v>
+        <v>4979900</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.3">
@@ -10916,7 +10918,7 @@
       </c>
       <c r="B994">
         <f t="shared" si="31"/>
-        <v>4989800</v>
+        <v>4989900</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.3">
@@ -10926,7 +10928,7 @@
       </c>
       <c r="B995">
         <f t="shared" si="31"/>
-        <v>4999800</v>
+        <v>4999900</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.3">
@@ -10936,7 +10938,7 @@
       </c>
       <c r="B996">
         <f t="shared" si="31"/>
-        <v>5009800</v>
+        <v>5009900</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.3">
@@ -10946,7 +10948,7 @@
       </c>
       <c r="B997">
         <f t="shared" si="31"/>
-        <v>5019800</v>
+        <v>5019900</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.3">
@@ -10956,7 +10958,7 @@
       </c>
       <c r="B998">
         <f t="shared" si="31"/>
-        <v>5029800</v>
+        <v>5029900</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.3">
@@ -10966,7 +10968,7 @@
       </c>
       <c r="B999">
         <f t="shared" si="31"/>
-        <v>5039800</v>
+        <v>5039900</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
@@ -10976,7 +10978,7 @@
       </c>
       <c r="B1000">
         <f t="shared" si="31"/>
-        <v>5049800</v>
+        <v>5049900</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
@@ -10986,7 +10988,7 @@
       </c>
       <c r="B1001">
         <f t="shared" si="31"/>
-        <v>5059900</v>
+        <v>5060000</v>
       </c>
     </row>
   </sheetData>
